--- a/Code/Results/Cases/Case_2_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_62/res_bus/vm_pu.xlsx
@@ -421,31 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9951331461764148</v>
+        <v>0.995133146176416</v>
       </c>
       <c r="D2">
-        <v>1.014393247776223</v>
+        <v>1.014393247776224</v>
       </c>
       <c r="E2">
-        <v>0.9598073848040926</v>
+        <v>0.959807384804093</v>
       </c>
       <c r="F2">
-        <v>0.9898997553284228</v>
+        <v>0.9898997553284232</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042401953893124</v>
+        <v>1.042401953893125</v>
       </c>
       <c r="J2">
-        <v>1.017460404865341</v>
+        <v>1.017460404865342</v>
       </c>
       <c r="K2">
-        <v>1.025655638524991</v>
+        <v>1.025655638524992</v>
       </c>
       <c r="L2">
-        <v>0.9718565956534383</v>
+        <v>0.9718565956534387</v>
       </c>
       <c r="M2">
         <v>1.001501619435263</v>
@@ -462,22 +462,22 @@
         <v>1.004674553365012</v>
       </c>
       <c r="D3">
-        <v>1.021937478895392</v>
+        <v>1.021937478895393</v>
       </c>
       <c r="E3">
-        <v>0.9688844686717978</v>
+        <v>0.968884468671798</v>
       </c>
       <c r="F3">
-        <v>0.999862537669488</v>
+        <v>0.9998625376694884</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046306854728064</v>
+        <v>1.046306854728065</v>
       </c>
       <c r="J3">
-        <v>1.025038591464072</v>
+        <v>1.025038591464073</v>
       </c>
       <c r="K3">
         <v>1.032297153988979</v>
@@ -486,7 +486,7 @@
         <v>0.9799315926775634</v>
       </c>
       <c r="M3">
-        <v>1.010497177653956</v>
+        <v>1.010497177653957</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010588150246415</v>
+        <v>1.010588150246414</v>
       </c>
       <c r="D4">
-        <v>1.026614444883366</v>
+        <v>1.026614444883365</v>
       </c>
       <c r="E4">
-        <v>0.974460493076031</v>
+        <v>0.9744604930760304</v>
       </c>
       <c r="F4">
-        <v>1.006009734660295</v>
+        <v>1.006009734660293</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.048707873287394</v>
       </c>
       <c r="J4">
-        <v>1.029724833959257</v>
+        <v>1.029724833959256</v>
       </c>
       <c r="K4">
-        <v>1.036401927500222</v>
+        <v>1.036401927500221</v>
       </c>
       <c r="L4">
-        <v>0.9848772543458983</v>
+        <v>0.9848772543458978</v>
       </c>
       <c r="M4">
-        <v>1.016036164600588</v>
+        <v>1.016036164600587</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,7 +541,7 @@
         <v>1.028535470330949</v>
       </c>
       <c r="E5">
-        <v>0.9767394222023508</v>
+        <v>0.9767394222023504</v>
       </c>
       <c r="F5">
         <v>1.008528375761653</v>
@@ -556,13 +556,13 @@
         <v>1.031646977711752</v>
       </c>
       <c r="K5">
-        <v>1.03808499472558</v>
+        <v>1.038084994725579</v>
       </c>
       <c r="L5">
-        <v>0.9868950510526412</v>
+        <v>0.9868950510526411</v>
       </c>
       <c r="M5">
-        <v>1.018302902880606</v>
+        <v>1.018302902880605</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01342147787557</v>
+        <v>1.013421477875571</v>
       </c>
       <c r="D6">
-        <v>1.028855472010968</v>
+        <v>1.028855472010969</v>
       </c>
       <c r="E6">
-        <v>0.977118397577019</v>
+        <v>0.9771183975770196</v>
       </c>
       <c r="F6">
-        <v>1.008947577552187</v>
+        <v>1.008947577552189</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049852611285038</v>
+        <v>1.049852611285039</v>
       </c>
       <c r="J6">
-        <v>1.03196701082777</v>
+        <v>1.031967010827771</v>
       </c>
       <c r="K6">
-        <v>1.038365187062846</v>
+        <v>1.038365187062847</v>
       </c>
       <c r="L6">
-        <v>0.9872303962742656</v>
+        <v>0.9872303962742662</v>
       </c>
       <c r="M6">
-        <v>1.01868001966446</v>
+        <v>1.018680019664461</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010620822513055</v>
+        <v>1.010620822513054</v>
       </c>
       <c r="D7">
-        <v>1.026640286529098</v>
+        <v>1.026640286529097</v>
       </c>
       <c r="E7">
-        <v>0.9744911932741839</v>
+        <v>0.9744911932741832</v>
       </c>
       <c r="F7">
         <v>1.006043639431917</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048721095126783</v>
+        <v>1.048721095126782</v>
       </c>
       <c r="J7">
-        <v>1.029750701165604</v>
+        <v>1.029750701165603</v>
       </c>
       <c r="K7">
-        <v>1.036424579678489</v>
+        <v>1.036424579678488</v>
       </c>
       <c r="L7">
-        <v>0.9849044506136032</v>
+        <v>0.9849044506136028</v>
       </c>
       <c r="M7">
         <v>1.016066689079745</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9984148474385903</v>
+        <v>0.998414847438591</v>
       </c>
       <c r="D8">
-        <v>1.0169877024937</v>
+        <v>1.016987702493701</v>
       </c>
       <c r="E8">
-        <v>0.962940501690113</v>
+        <v>0.962940501690114</v>
       </c>
       <c r="F8">
-        <v>0.9933326282347452</v>
+        <v>0.9933326282347466</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043749099514652</v>
+        <v>1.043749099514653</v>
       </c>
       <c r="J8">
-        <v>1.020069131737306</v>
+        <v>1.020069131737307</v>
       </c>
       <c r="K8">
-        <v>1.027942378043831</v>
+        <v>1.027942378043832</v>
       </c>
       <c r="L8">
-        <v>0.9746470220746549</v>
+        <v>0.9746470220746557</v>
       </c>
       <c r="M8">
-        <v>1.004603677212784</v>
+        <v>1.004603677212785</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9746441125514033</v>
+        <v>0.9746441125514043</v>
       </c>
       <c r="D9">
-        <v>0.9982062129491711</v>
+        <v>0.9982062129491724</v>
       </c>
       <c r="E9">
-        <v>0.9399836111757062</v>
+        <v>0.9399836111757072</v>
       </c>
       <c r="F9">
-        <v>0.9683145674292942</v>
+        <v>0.9683145674292953</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033905700246181</v>
+        <v>1.033905700246182</v>
       </c>
       <c r="J9">
-        <v>1.001125159793366</v>
+        <v>1.001125159793368</v>
       </c>
       <c r="K9">
         <v>1.011328460293405</v>
       </c>
       <c r="L9">
-        <v>0.9541317394604789</v>
+        <v>0.9541317394604797</v>
       </c>
       <c r="M9">
-        <v>0.9819435260565703</v>
+        <v>0.9819435260565714</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9568080809754311</v>
+        <v>0.9568080809754314</v>
       </c>
       <c r="D10">
-        <v>0.9841364871758373</v>
+        <v>0.9841364871758375</v>
       </c>
       <c r="E10">
-        <v>0.9223528450043184</v>
+        <v>0.9223528450043192</v>
       </c>
       <c r="F10">
-        <v>0.9492982088126326</v>
+        <v>0.949298208812633</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.02640758249063</v>
       </c>
       <c r="J10">
-        <v>0.9868467295467725</v>
+        <v>0.9868467295467729</v>
       </c>
       <c r="K10">
-        <v>0.9987981936012778</v>
+        <v>0.9987981936012779</v>
       </c>
       <c r="L10">
-        <v>0.9382814129885597</v>
+        <v>0.9382814129885604</v>
       </c>
       <c r="M10">
-        <v>0.9646474923631551</v>
+        <v>0.9646474923631554</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9484704146020045</v>
+        <v>0.9484704146020057</v>
       </c>
       <c r="D11">
-        <v>0.9775679407389726</v>
+        <v>0.9775679407389735</v>
       </c>
       <c r="E11">
-        <v>0.9139869870347691</v>
+        <v>0.9139869870347699</v>
       </c>
       <c r="F11">
-        <v>0.9403306759062819</v>
+        <v>0.9403306759062828</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022875139791082</v>
+        <v>1.022875139791083</v>
       </c>
       <c r="J11">
-        <v>0.9801559244823075</v>
+        <v>0.9801559244823086</v>
       </c>
       <c r="K11">
-        <v>0.9929256650723945</v>
+        <v>0.9929256650723955</v>
       </c>
       <c r="L11">
-        <v>0.9307362460497477</v>
+        <v>0.9307362460497484</v>
       </c>
       <c r="M11">
-        <v>0.9564729875338268</v>
+        <v>0.9564729875338275</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9452648311940776</v>
+        <v>0.9452648311940758</v>
       </c>
       <c r="D12">
-        <v>0.9750441288589268</v>
+        <v>0.9750441288589249</v>
       </c>
       <c r="E12">
-        <v>0.9107487000138185</v>
+        <v>0.9107487000138161</v>
       </c>
       <c r="F12">
-        <v>0.9368688776294398</v>
+        <v>0.9368688776294377</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021512828955237</v>
+        <v>1.021512828955236</v>
       </c>
       <c r="J12">
-        <v>0.9775809596657358</v>
+        <v>0.9775809596657339</v>
       </c>
       <c r="K12">
-        <v>0.9906655875891778</v>
+        <v>0.9906655875891762</v>
       </c>
       <c r="L12">
-        <v>0.9278118490353402</v>
+        <v>0.9278118490353382</v>
       </c>
       <c r="M12">
-        <v>0.9533144783903152</v>
+        <v>0.9533144783903131</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9459576650879081</v>
+        <v>0.9459576650879085</v>
       </c>
       <c r="D13">
-        <v>0.9755895314992999</v>
+        <v>0.9755895314993001</v>
       </c>
       <c r="E13">
-        <v>0.9114496482788901</v>
+        <v>0.9114496482788903</v>
       </c>
       <c r="F13">
-        <v>0.9376177650647461</v>
+        <v>0.9376177650647466</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.021807460351822</v>
       </c>
       <c r="J13">
-        <v>0.9781376130031908</v>
+        <v>0.9781376130031911</v>
       </c>
       <c r="K13">
-        <v>0.9911541681415214</v>
+        <v>0.9911541681415215</v>
       </c>
       <c r="L13">
-        <v>0.9284450269028182</v>
+        <v>0.9284450269028184</v>
       </c>
       <c r="M13">
-        <v>0.953997885746475</v>
+        <v>0.9539978857464754</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9482077657788998</v>
+        <v>0.9482077657788974</v>
       </c>
       <c r="D14">
-        <v>0.9773611184894047</v>
+        <v>0.9773611184894028</v>
       </c>
       <c r="E14">
-        <v>0.9137221213901934</v>
+        <v>0.9137221213901915</v>
       </c>
       <c r="F14">
-        <v>0.9400473332031141</v>
+        <v>0.940047333203112</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022763604278046</v>
+        <v>1.022763604278045</v>
       </c>
       <c r="J14">
-        <v>0.9799449975535344</v>
+        <v>0.9799449975535324</v>
       </c>
       <c r="K14">
-        <v>0.9927405318287972</v>
+        <v>0.9927405318287955</v>
       </c>
       <c r="L14">
-        <v>0.9304971312720172</v>
+        <v>0.9304971312720156</v>
       </c>
       <c r="M14">
-        <v>0.9562145266533785</v>
+        <v>0.9562145266533764</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9495791733711089</v>
+        <v>0.9495791733711116</v>
       </c>
       <c r="D15">
-        <v>0.9784410969653724</v>
+        <v>0.9784410969653747</v>
       </c>
       <c r="E15">
-        <v>0.9151041999118542</v>
+        <v>0.9151041999118561</v>
       </c>
       <c r="F15">
-        <v>0.9415262102319868</v>
+        <v>0.9415262102319898</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023345811520292</v>
+        <v>1.023345811520293</v>
       </c>
       <c r="J15">
-        <v>0.9810462380978358</v>
+        <v>0.9810462380978384</v>
       </c>
       <c r="K15">
-        <v>0.9937071042306016</v>
+        <v>0.993707104230604</v>
       </c>
       <c r="L15">
-        <v>0.9317446874033213</v>
+        <v>0.9317446874033233</v>
       </c>
       <c r="M15">
-        <v>0.9575634201379052</v>
+        <v>0.9575634201379081</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9573471842883547</v>
+        <v>0.9573471842883555</v>
       </c>
       <c r="D16">
-        <v>0.9845614002759506</v>
+        <v>0.9845614002759515</v>
       </c>
       <c r="E16">
-        <v>0.9228909925090029</v>
+        <v>0.9228909925090041</v>
       </c>
       <c r="F16">
-        <v>0.9498762677433894</v>
+        <v>0.9498762677433905</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026635421773894</v>
+        <v>1.026635421773895</v>
       </c>
       <c r="J16">
-        <v>0.9872790098402101</v>
+        <v>0.9872790098402109</v>
       </c>
       <c r="K16">
-        <v>0.9991775966339264</v>
+        <v>0.9991775966339271</v>
       </c>
       <c r="L16">
-        <v>0.938766266442622</v>
+        <v>0.938766266442623</v>
       </c>
       <c r="M16">
-        <v>0.9651740525939979</v>
+        <v>0.9651740525939988</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9620451163654851</v>
+        <v>0.9620451163654868</v>
       </c>
       <c r="D17">
-        <v>0.9882652150045846</v>
+        <v>0.9882652150045861</v>
       </c>
       <c r="E17">
-        <v>0.9275665605232488</v>
+        <v>0.9275665605232498</v>
       </c>
       <c r="F17">
-        <v>0.9549048162143292</v>
+        <v>0.9549048162143307</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028617854903254</v>
+        <v>1.028617854903255</v>
       </c>
       <c r="J17">
-        <v>0.9910442474302303</v>
+        <v>0.9910442474302319</v>
       </c>
       <c r="K17">
-        <v>1.002482174270436</v>
+        <v>1.002482174270438</v>
       </c>
       <c r="L17">
-        <v>0.9429761339266234</v>
+        <v>0.9429761339266246</v>
       </c>
       <c r="M17">
-        <v>0.9697525924258953</v>
+        <v>0.9697525924258964</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9647273384207729</v>
+        <v>0.9647273384207712</v>
       </c>
       <c r="D18">
-        <v>0.9903806204833946</v>
+        <v>0.9903806204833933</v>
       </c>
       <c r="E18">
-        <v>0.9302248252034465</v>
+        <v>0.9302248252034452</v>
       </c>
       <c r="F18">
-        <v>0.957768781443093</v>
+        <v>0.9577687814430916</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029747186688486</v>
+        <v>1.029747186688485</v>
       </c>
       <c r="J18">
-        <v>0.9931924795048738</v>
+        <v>0.9931924795048721</v>
       </c>
       <c r="K18">
-        <v>1.004367488821939</v>
+        <v>1.004367488821938</v>
       </c>
       <c r="L18">
-        <v>0.9453674372177093</v>
+        <v>0.9453674372177082</v>
       </c>
       <c r="M18">
-        <v>0.9723585982808933</v>
+        <v>0.972358598280892</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9656324955772221</v>
+        <v>0.9656324955772225</v>
       </c>
       <c r="D19">
-        <v>0.9910946174550345</v>
+        <v>0.9910946174550349</v>
       </c>
       <c r="E19">
-        <v>0.9311200785652486</v>
+        <v>0.9311200785652487</v>
       </c>
       <c r="F19">
-        <v>0.9587341371560021</v>
+        <v>0.9587341371560022</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.03012787277378</v>
       </c>
       <c r="J19">
-        <v>0.993917185124945</v>
+        <v>0.9939171851249454</v>
       </c>
       <c r="K19">
-        <v>1.005003481053231</v>
+        <v>1.005003481053232</v>
       </c>
       <c r="L19">
-        <v>0.946172415563628</v>
+        <v>0.9461724155636281</v>
       </c>
       <c r="M19">
-        <v>0.9732367248057322</v>
+        <v>0.9732367248057323</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9615471761620813</v>
+        <v>0.9615471761620805</v>
       </c>
       <c r="D20">
-        <v>0.9878725611875055</v>
+        <v>0.9878725611875048</v>
       </c>
       <c r="E20">
-        <v>0.9270721770158122</v>
+        <v>0.927072177015811</v>
       </c>
       <c r="F20">
-        <v>0.9543725794277164</v>
+        <v>0.9543725794277156</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028407996553227</v>
+        <v>1.028407996553226</v>
       </c>
       <c r="J20">
-        <v>0.9906453198495566</v>
+        <v>0.9906453198495561</v>
       </c>
       <c r="K20">
-        <v>1.00213206249624</v>
+        <v>1.002132062496239</v>
       </c>
       <c r="L20">
-        <v>0.9425312222730217</v>
+        <v>0.9425312222730206</v>
       </c>
       <c r="M20">
-        <v>0.9692681599805333</v>
+        <v>0.9692681599805325</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9475483184623399</v>
+        <v>0.947548318462343</v>
       </c>
       <c r="D21">
-        <v>0.9768418648815316</v>
+        <v>0.9768418648815346</v>
       </c>
       <c r="E21">
-        <v>0.913056745477423</v>
+        <v>0.9130567454774247</v>
       </c>
       <c r="F21">
-        <v>0.9393356945492595</v>
+        <v>0.9393356945492619</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022483498261472</v>
+        <v>1.022483498261473</v>
       </c>
       <c r="J21">
-        <v>0.9794153700080781</v>
+        <v>0.9794153700080813</v>
       </c>
       <c r="K21">
-        <v>0.9922756709773216</v>
+        <v>0.9922756709773245</v>
       </c>
       <c r="L21">
-        <v>0.9298963836714321</v>
+        <v>0.9298963836714337</v>
       </c>
       <c r="M21">
-        <v>0.9555653347742926</v>
+        <v>0.9555653347742951</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9381066013726199</v>
+        <v>0.938106601372619</v>
       </c>
       <c r="D22">
-        <v>0.9694117062420406</v>
+        <v>0.9694117062420397</v>
       </c>
       <c r="E22">
-        <v>0.9034722650418909</v>
+        <v>0.9034722650418897</v>
       </c>
       <c r="F22">
-        <v>0.9291091290299976</v>
+        <v>0.9291091290299968</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018462798789063</v>
+        <v>1.018462798789062</v>
       </c>
       <c r="J22">
-        <v>0.9718260106644462</v>
+        <v>0.9718260106644453</v>
       </c>
       <c r="K22">
-        <v>0.9856144926322646</v>
+        <v>0.985614492632264</v>
       </c>
       <c r="L22">
-        <v>0.9212334556878589</v>
+        <v>0.9212334556878576</v>
       </c>
       <c r="M22">
-        <v>0.9462291123441938</v>
+        <v>0.9462291123441927</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9431792197923714</v>
+        <v>0.9431792197923707</v>
       </c>
       <c r="D23">
-        <v>0.9734025861821745</v>
+        <v>0.9734025861821737</v>
       </c>
       <c r="E23">
-        <v>0.9086351498025498</v>
+        <v>0.9086351498025487</v>
       </c>
       <c r="F23">
-        <v>0.9346122498216762</v>
+        <v>0.9346122498216751</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.020625287910899</v>
       </c>
       <c r="J23">
-        <v>0.9759049011968389</v>
+        <v>0.9759049011968381</v>
       </c>
       <c r="K23">
-        <v>0.9891944989844331</v>
+        <v>0.9891944989844326</v>
       </c>
       <c r="L23">
-        <v>0.925902075456925</v>
+        <v>0.9259020754569238</v>
       </c>
       <c r="M23">
-        <v>0.9512547344360052</v>
+        <v>0.9512547344360038</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9617723519689271</v>
+        <v>0.9617723519689265</v>
       </c>
       <c r="D24">
-        <v>0.98805012260641</v>
+        <v>0.9880501226064095</v>
       </c>
       <c r="E24">
-        <v>0.9272957790967774</v>
+        <v>0.9272957790967776</v>
       </c>
       <c r="F24">
-        <v>0.9546132863695153</v>
+        <v>0.954613286369515</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.028502905380559</v>
       </c>
       <c r="J24">
-        <v>0.9908257253152531</v>
+        <v>0.9908257253152525</v>
       </c>
       <c r="K24">
         <v>1.002290392471263</v>
       </c>
       <c r="L24">
-        <v>0.9427324558228583</v>
+        <v>0.9427324558228585</v>
       </c>
       <c r="M24">
-        <v>0.9694872523287373</v>
+        <v>0.9694872523287371</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9810998866511003</v>
+        <v>0.9810998866511018</v>
       </c>
       <c r="D25">
-        <v>1.003304072638122</v>
+        <v>1.003304072638124</v>
       </c>
       <c r="E25">
-        <v>0.9462786788853011</v>
+        <v>0.9462786788853021</v>
       </c>
       <c r="F25">
-        <v>0.9751446264581461</v>
+        <v>0.9751446264581475</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036597540643597</v>
+        <v>1.036597540643598</v>
       </c>
       <c r="J25">
-        <v>1.006280496793992</v>
+        <v>1.006280496793994</v>
       </c>
       <c r="K25">
-        <v>1.015851312754843</v>
+        <v>1.015851312754845</v>
       </c>
       <c r="L25">
-        <v>0.9597724252575687</v>
+        <v>0.9597724252575699</v>
       </c>
       <c r="M25">
-        <v>0.9881414472804508</v>
+        <v>0.9881414472804522</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_62/res_bus/vm_pu.xlsx
@@ -421,31 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.995133146176416</v>
+        <v>0.9951331461764148</v>
       </c>
       <c r="D2">
-        <v>1.014393247776224</v>
+        <v>1.014393247776223</v>
       </c>
       <c r="E2">
-        <v>0.959807384804093</v>
+        <v>0.9598073848040926</v>
       </c>
       <c r="F2">
-        <v>0.9898997553284232</v>
+        <v>0.9898997553284228</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042401953893125</v>
+        <v>1.042401953893124</v>
       </c>
       <c r="J2">
-        <v>1.017460404865342</v>
+        <v>1.017460404865341</v>
       </c>
       <c r="K2">
-        <v>1.025655638524992</v>
+        <v>1.025655638524991</v>
       </c>
       <c r="L2">
-        <v>0.9718565956534387</v>
+        <v>0.9718565956534383</v>
       </c>
       <c r="M2">
         <v>1.001501619435263</v>
@@ -462,22 +462,22 @@
         <v>1.004674553365012</v>
       </c>
       <c r="D3">
-        <v>1.021937478895393</v>
+        <v>1.021937478895392</v>
       </c>
       <c r="E3">
-        <v>0.968884468671798</v>
+        <v>0.9688844686717978</v>
       </c>
       <c r="F3">
-        <v>0.9998625376694884</v>
+        <v>0.999862537669488</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046306854728065</v>
+        <v>1.046306854728064</v>
       </c>
       <c r="J3">
-        <v>1.025038591464073</v>
+        <v>1.025038591464072</v>
       </c>
       <c r="K3">
         <v>1.032297153988979</v>
@@ -486,7 +486,7 @@
         <v>0.9799315926775634</v>
       </c>
       <c r="M3">
-        <v>1.010497177653957</v>
+        <v>1.010497177653956</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010588150246414</v>
+        <v>1.010588150246415</v>
       </c>
       <c r="D4">
-        <v>1.026614444883365</v>
+        <v>1.026614444883366</v>
       </c>
       <c r="E4">
-        <v>0.9744604930760304</v>
+        <v>0.974460493076031</v>
       </c>
       <c r="F4">
-        <v>1.006009734660293</v>
+        <v>1.006009734660295</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.048707873287394</v>
       </c>
       <c r="J4">
-        <v>1.029724833959256</v>
+        <v>1.029724833959257</v>
       </c>
       <c r="K4">
-        <v>1.036401927500221</v>
+        <v>1.036401927500222</v>
       </c>
       <c r="L4">
-        <v>0.9848772543458978</v>
+        <v>0.9848772543458983</v>
       </c>
       <c r="M4">
-        <v>1.016036164600587</v>
+        <v>1.016036164600588</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,7 +541,7 @@
         <v>1.028535470330949</v>
       </c>
       <c r="E5">
-        <v>0.9767394222023504</v>
+        <v>0.9767394222023508</v>
       </c>
       <c r="F5">
         <v>1.008528375761653</v>
@@ -556,13 +556,13 @@
         <v>1.031646977711752</v>
       </c>
       <c r="K5">
-        <v>1.038084994725579</v>
+        <v>1.03808499472558</v>
       </c>
       <c r="L5">
-        <v>0.9868950510526411</v>
+        <v>0.9868950510526412</v>
       </c>
       <c r="M5">
-        <v>1.018302902880605</v>
+        <v>1.018302902880606</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013421477875571</v>
+        <v>1.01342147787557</v>
       </c>
       <c r="D6">
-        <v>1.028855472010969</v>
+        <v>1.028855472010968</v>
       </c>
       <c r="E6">
-        <v>0.9771183975770196</v>
+        <v>0.977118397577019</v>
       </c>
       <c r="F6">
-        <v>1.008947577552189</v>
+        <v>1.008947577552187</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049852611285039</v>
+        <v>1.049852611285038</v>
       </c>
       <c r="J6">
-        <v>1.031967010827771</v>
+        <v>1.03196701082777</v>
       </c>
       <c r="K6">
-        <v>1.038365187062847</v>
+        <v>1.038365187062846</v>
       </c>
       <c r="L6">
-        <v>0.9872303962742662</v>
+        <v>0.9872303962742656</v>
       </c>
       <c r="M6">
-        <v>1.018680019664461</v>
+        <v>1.01868001966446</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010620822513054</v>
+        <v>1.010620822513055</v>
       </c>
       <c r="D7">
-        <v>1.026640286529097</v>
+        <v>1.026640286529098</v>
       </c>
       <c r="E7">
-        <v>0.9744911932741832</v>
+        <v>0.9744911932741839</v>
       </c>
       <c r="F7">
         <v>1.006043639431917</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048721095126782</v>
+        <v>1.048721095126783</v>
       </c>
       <c r="J7">
-        <v>1.029750701165603</v>
+        <v>1.029750701165604</v>
       </c>
       <c r="K7">
-        <v>1.036424579678488</v>
+        <v>1.036424579678489</v>
       </c>
       <c r="L7">
-        <v>0.9849044506136028</v>
+        <v>0.9849044506136032</v>
       </c>
       <c r="M7">
         <v>1.016066689079745</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.998414847438591</v>
+        <v>0.9984148474385903</v>
       </c>
       <c r="D8">
-        <v>1.016987702493701</v>
+        <v>1.0169877024937</v>
       </c>
       <c r="E8">
-        <v>0.962940501690114</v>
+        <v>0.962940501690113</v>
       </c>
       <c r="F8">
-        <v>0.9933326282347466</v>
+        <v>0.9933326282347452</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043749099514653</v>
+        <v>1.043749099514652</v>
       </c>
       <c r="J8">
-        <v>1.020069131737307</v>
+        <v>1.020069131737306</v>
       </c>
       <c r="K8">
-        <v>1.027942378043832</v>
+        <v>1.027942378043831</v>
       </c>
       <c r="L8">
-        <v>0.9746470220746557</v>
+        <v>0.9746470220746549</v>
       </c>
       <c r="M8">
-        <v>1.004603677212785</v>
+        <v>1.004603677212784</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9746441125514043</v>
+        <v>0.9746441125514033</v>
       </c>
       <c r="D9">
-        <v>0.9982062129491724</v>
+        <v>0.9982062129491711</v>
       </c>
       <c r="E9">
-        <v>0.9399836111757072</v>
+        <v>0.9399836111757062</v>
       </c>
       <c r="F9">
-        <v>0.9683145674292953</v>
+        <v>0.9683145674292942</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033905700246182</v>
+        <v>1.033905700246181</v>
       </c>
       <c r="J9">
-        <v>1.001125159793368</v>
+        <v>1.001125159793366</v>
       </c>
       <c r="K9">
         <v>1.011328460293405</v>
       </c>
       <c r="L9">
-        <v>0.9541317394604797</v>
+        <v>0.9541317394604789</v>
       </c>
       <c r="M9">
-        <v>0.9819435260565714</v>
+        <v>0.9819435260565703</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9568080809754314</v>
+        <v>0.9568080809754311</v>
       </c>
       <c r="D10">
-        <v>0.9841364871758375</v>
+        <v>0.9841364871758373</v>
       </c>
       <c r="E10">
-        <v>0.9223528450043192</v>
+        <v>0.9223528450043184</v>
       </c>
       <c r="F10">
-        <v>0.949298208812633</v>
+        <v>0.9492982088126326</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.02640758249063</v>
       </c>
       <c r="J10">
-        <v>0.9868467295467729</v>
+        <v>0.9868467295467725</v>
       </c>
       <c r="K10">
-        <v>0.9987981936012779</v>
+        <v>0.9987981936012778</v>
       </c>
       <c r="L10">
-        <v>0.9382814129885604</v>
+        <v>0.9382814129885597</v>
       </c>
       <c r="M10">
-        <v>0.9646474923631554</v>
+        <v>0.9646474923631551</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9484704146020057</v>
+        <v>0.9484704146020045</v>
       </c>
       <c r="D11">
-        <v>0.9775679407389735</v>
+        <v>0.9775679407389726</v>
       </c>
       <c r="E11">
-        <v>0.9139869870347699</v>
+        <v>0.9139869870347691</v>
       </c>
       <c r="F11">
-        <v>0.9403306759062828</v>
+        <v>0.9403306759062819</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022875139791083</v>
+        <v>1.022875139791082</v>
       </c>
       <c r="J11">
-        <v>0.9801559244823086</v>
+        <v>0.9801559244823075</v>
       </c>
       <c r="K11">
-        <v>0.9929256650723955</v>
+        <v>0.9929256650723945</v>
       </c>
       <c r="L11">
-        <v>0.9307362460497484</v>
+        <v>0.9307362460497477</v>
       </c>
       <c r="M11">
-        <v>0.9564729875338275</v>
+        <v>0.9564729875338268</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9452648311940758</v>
+        <v>0.9452648311940776</v>
       </c>
       <c r="D12">
-        <v>0.9750441288589249</v>
+        <v>0.9750441288589268</v>
       </c>
       <c r="E12">
-        <v>0.9107487000138161</v>
+        <v>0.9107487000138185</v>
       </c>
       <c r="F12">
-        <v>0.9368688776294377</v>
+        <v>0.9368688776294398</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021512828955236</v>
+        <v>1.021512828955237</v>
       </c>
       <c r="J12">
-        <v>0.9775809596657339</v>
+        <v>0.9775809596657358</v>
       </c>
       <c r="K12">
-        <v>0.9906655875891762</v>
+        <v>0.9906655875891778</v>
       </c>
       <c r="L12">
-        <v>0.9278118490353382</v>
+        <v>0.9278118490353402</v>
       </c>
       <c r="M12">
-        <v>0.9533144783903131</v>
+        <v>0.9533144783903152</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9459576650879085</v>
+        <v>0.9459576650879081</v>
       </c>
       <c r="D13">
-        <v>0.9755895314993001</v>
+        <v>0.9755895314992999</v>
       </c>
       <c r="E13">
-        <v>0.9114496482788903</v>
+        <v>0.9114496482788901</v>
       </c>
       <c r="F13">
-        <v>0.9376177650647466</v>
+        <v>0.9376177650647461</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.021807460351822</v>
       </c>
       <c r="J13">
-        <v>0.9781376130031911</v>
+        <v>0.9781376130031908</v>
       </c>
       <c r="K13">
-        <v>0.9911541681415215</v>
+        <v>0.9911541681415214</v>
       </c>
       <c r="L13">
-        <v>0.9284450269028184</v>
+        <v>0.9284450269028182</v>
       </c>
       <c r="M13">
-        <v>0.9539978857464754</v>
+        <v>0.953997885746475</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9482077657788974</v>
+        <v>0.9482077657788998</v>
       </c>
       <c r="D14">
-        <v>0.9773611184894028</v>
+        <v>0.9773611184894047</v>
       </c>
       <c r="E14">
-        <v>0.9137221213901915</v>
+        <v>0.9137221213901934</v>
       </c>
       <c r="F14">
-        <v>0.940047333203112</v>
+        <v>0.9400473332031141</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022763604278045</v>
+        <v>1.022763604278046</v>
       </c>
       <c r="J14">
-        <v>0.9799449975535324</v>
+        <v>0.9799449975535344</v>
       </c>
       <c r="K14">
-        <v>0.9927405318287955</v>
+        <v>0.9927405318287972</v>
       </c>
       <c r="L14">
-        <v>0.9304971312720156</v>
+        <v>0.9304971312720172</v>
       </c>
       <c r="M14">
-        <v>0.9562145266533764</v>
+        <v>0.9562145266533785</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9495791733711116</v>
+        <v>0.9495791733711089</v>
       </c>
       <c r="D15">
-        <v>0.9784410969653747</v>
+        <v>0.9784410969653724</v>
       </c>
       <c r="E15">
-        <v>0.9151041999118561</v>
+        <v>0.9151041999118542</v>
       </c>
       <c r="F15">
-        <v>0.9415262102319898</v>
+        <v>0.9415262102319868</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023345811520293</v>
+        <v>1.023345811520292</v>
       </c>
       <c r="J15">
-        <v>0.9810462380978384</v>
+        <v>0.9810462380978358</v>
       </c>
       <c r="K15">
-        <v>0.993707104230604</v>
+        <v>0.9937071042306016</v>
       </c>
       <c r="L15">
-        <v>0.9317446874033233</v>
+        <v>0.9317446874033213</v>
       </c>
       <c r="M15">
-        <v>0.9575634201379081</v>
+        <v>0.9575634201379052</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9573471842883555</v>
+        <v>0.9573471842883547</v>
       </c>
       <c r="D16">
-        <v>0.9845614002759515</v>
+        <v>0.9845614002759506</v>
       </c>
       <c r="E16">
-        <v>0.9228909925090041</v>
+        <v>0.9228909925090029</v>
       </c>
       <c r="F16">
-        <v>0.9498762677433905</v>
+        <v>0.9498762677433894</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026635421773895</v>
+        <v>1.026635421773894</v>
       </c>
       <c r="J16">
-        <v>0.9872790098402109</v>
+        <v>0.9872790098402101</v>
       </c>
       <c r="K16">
-        <v>0.9991775966339271</v>
+        <v>0.9991775966339264</v>
       </c>
       <c r="L16">
-        <v>0.938766266442623</v>
+        <v>0.938766266442622</v>
       </c>
       <c r="M16">
-        <v>0.9651740525939988</v>
+        <v>0.9651740525939979</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9620451163654868</v>
+        <v>0.9620451163654851</v>
       </c>
       <c r="D17">
-        <v>0.9882652150045861</v>
+        <v>0.9882652150045846</v>
       </c>
       <c r="E17">
-        <v>0.9275665605232498</v>
+        <v>0.9275665605232488</v>
       </c>
       <c r="F17">
-        <v>0.9549048162143307</v>
+        <v>0.9549048162143292</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028617854903255</v>
+        <v>1.028617854903254</v>
       </c>
       <c r="J17">
-        <v>0.9910442474302319</v>
+        <v>0.9910442474302303</v>
       </c>
       <c r="K17">
-        <v>1.002482174270438</v>
+        <v>1.002482174270436</v>
       </c>
       <c r="L17">
-        <v>0.9429761339266246</v>
+        <v>0.9429761339266234</v>
       </c>
       <c r="M17">
-        <v>0.9697525924258964</v>
+        <v>0.9697525924258953</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9647273384207712</v>
+        <v>0.9647273384207729</v>
       </c>
       <c r="D18">
-        <v>0.9903806204833933</v>
+        <v>0.9903806204833946</v>
       </c>
       <c r="E18">
-        <v>0.9302248252034452</v>
+        <v>0.9302248252034465</v>
       </c>
       <c r="F18">
-        <v>0.9577687814430916</v>
+        <v>0.957768781443093</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029747186688485</v>
+        <v>1.029747186688486</v>
       </c>
       <c r="J18">
-        <v>0.9931924795048721</v>
+        <v>0.9931924795048738</v>
       </c>
       <c r="K18">
-        <v>1.004367488821938</v>
+        <v>1.004367488821939</v>
       </c>
       <c r="L18">
-        <v>0.9453674372177082</v>
+        <v>0.9453674372177093</v>
       </c>
       <c r="M18">
-        <v>0.972358598280892</v>
+        <v>0.9723585982808933</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9656324955772225</v>
+        <v>0.9656324955772221</v>
       </c>
       <c r="D19">
-        <v>0.9910946174550349</v>
+        <v>0.9910946174550345</v>
       </c>
       <c r="E19">
-        <v>0.9311200785652487</v>
+        <v>0.9311200785652486</v>
       </c>
       <c r="F19">
-        <v>0.9587341371560022</v>
+        <v>0.9587341371560021</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.03012787277378</v>
       </c>
       <c r="J19">
-        <v>0.9939171851249454</v>
+        <v>0.993917185124945</v>
       </c>
       <c r="K19">
-        <v>1.005003481053232</v>
+        <v>1.005003481053231</v>
       </c>
       <c r="L19">
-        <v>0.9461724155636281</v>
+        <v>0.946172415563628</v>
       </c>
       <c r="M19">
-        <v>0.9732367248057323</v>
+        <v>0.9732367248057322</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9615471761620805</v>
+        <v>0.9615471761620813</v>
       </c>
       <c r="D20">
-        <v>0.9878725611875048</v>
+        <v>0.9878725611875055</v>
       </c>
       <c r="E20">
-        <v>0.927072177015811</v>
+        <v>0.9270721770158122</v>
       </c>
       <c r="F20">
-        <v>0.9543725794277156</v>
+        <v>0.9543725794277164</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028407996553226</v>
+        <v>1.028407996553227</v>
       </c>
       <c r="J20">
-        <v>0.9906453198495561</v>
+        <v>0.9906453198495566</v>
       </c>
       <c r="K20">
-        <v>1.002132062496239</v>
+        <v>1.00213206249624</v>
       </c>
       <c r="L20">
-        <v>0.9425312222730206</v>
+        <v>0.9425312222730217</v>
       </c>
       <c r="M20">
-        <v>0.9692681599805325</v>
+        <v>0.9692681599805333</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.947548318462343</v>
+        <v>0.9475483184623399</v>
       </c>
       <c r="D21">
-        <v>0.9768418648815346</v>
+        <v>0.9768418648815316</v>
       </c>
       <c r="E21">
-        <v>0.9130567454774247</v>
+        <v>0.913056745477423</v>
       </c>
       <c r="F21">
-        <v>0.9393356945492619</v>
+        <v>0.9393356945492595</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022483498261473</v>
+        <v>1.022483498261472</v>
       </c>
       <c r="J21">
-        <v>0.9794153700080813</v>
+        <v>0.9794153700080781</v>
       </c>
       <c r="K21">
-        <v>0.9922756709773245</v>
+        <v>0.9922756709773216</v>
       </c>
       <c r="L21">
-        <v>0.9298963836714337</v>
+        <v>0.9298963836714321</v>
       </c>
       <c r="M21">
-        <v>0.9555653347742951</v>
+        <v>0.9555653347742926</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.938106601372619</v>
+        <v>0.9381066013726199</v>
       </c>
       <c r="D22">
-        <v>0.9694117062420397</v>
+        <v>0.9694117062420406</v>
       </c>
       <c r="E22">
-        <v>0.9034722650418897</v>
+        <v>0.9034722650418909</v>
       </c>
       <c r="F22">
-        <v>0.9291091290299968</v>
+        <v>0.9291091290299976</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018462798789062</v>
+        <v>1.018462798789063</v>
       </c>
       <c r="J22">
-        <v>0.9718260106644453</v>
+        <v>0.9718260106644462</v>
       </c>
       <c r="K22">
-        <v>0.985614492632264</v>
+        <v>0.9856144926322646</v>
       </c>
       <c r="L22">
-        <v>0.9212334556878576</v>
+        <v>0.9212334556878589</v>
       </c>
       <c r="M22">
-        <v>0.9462291123441927</v>
+        <v>0.9462291123441938</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9431792197923707</v>
+        <v>0.9431792197923714</v>
       </c>
       <c r="D23">
-        <v>0.9734025861821737</v>
+        <v>0.9734025861821745</v>
       </c>
       <c r="E23">
-        <v>0.9086351498025487</v>
+        <v>0.9086351498025498</v>
       </c>
       <c r="F23">
-        <v>0.9346122498216751</v>
+        <v>0.9346122498216762</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.020625287910899</v>
       </c>
       <c r="J23">
-        <v>0.9759049011968381</v>
+        <v>0.9759049011968389</v>
       </c>
       <c r="K23">
-        <v>0.9891944989844326</v>
+        <v>0.9891944989844331</v>
       </c>
       <c r="L23">
-        <v>0.9259020754569238</v>
+        <v>0.925902075456925</v>
       </c>
       <c r="M23">
-        <v>0.9512547344360038</v>
+        <v>0.9512547344360052</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9617723519689265</v>
+        <v>0.9617723519689271</v>
       </c>
       <c r="D24">
-        <v>0.9880501226064095</v>
+        <v>0.98805012260641</v>
       </c>
       <c r="E24">
-        <v>0.9272957790967776</v>
+        <v>0.9272957790967774</v>
       </c>
       <c r="F24">
-        <v>0.954613286369515</v>
+        <v>0.9546132863695153</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.028502905380559</v>
       </c>
       <c r="J24">
-        <v>0.9908257253152525</v>
+        <v>0.9908257253152531</v>
       </c>
       <c r="K24">
         <v>1.002290392471263</v>
       </c>
       <c r="L24">
-        <v>0.9427324558228585</v>
+        <v>0.9427324558228583</v>
       </c>
       <c r="M24">
-        <v>0.9694872523287371</v>
+        <v>0.9694872523287373</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9810998866511018</v>
+        <v>0.9810998866511003</v>
       </c>
       <c r="D25">
-        <v>1.003304072638124</v>
+        <v>1.003304072638122</v>
       </c>
       <c r="E25">
-        <v>0.9462786788853021</v>
+        <v>0.9462786788853011</v>
       </c>
       <c r="F25">
-        <v>0.9751446264581475</v>
+        <v>0.9751446264581461</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036597540643598</v>
+        <v>1.036597540643597</v>
       </c>
       <c r="J25">
-        <v>1.006280496793994</v>
+        <v>1.006280496793992</v>
       </c>
       <c r="K25">
-        <v>1.015851312754845</v>
+        <v>1.015851312754843</v>
       </c>
       <c r="L25">
-        <v>0.9597724252575699</v>
+        <v>0.9597724252575687</v>
       </c>
       <c r="M25">
-        <v>0.9881414472804522</v>
+        <v>0.9881414472804508</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_62/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9951331461764148</v>
+        <v>0.9983365005444488</v>
       </c>
       <c r="D2">
-        <v>1.014393247776223</v>
+        <v>1.017015002060052</v>
       </c>
       <c r="E2">
-        <v>0.9598073848040926</v>
+        <v>0.9607854111161656</v>
       </c>
       <c r="F2">
-        <v>0.9898997553284228</v>
+        <v>0.9920518223566018</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042401953893124</v>
+        <v>1.043903292581961</v>
       </c>
       <c r="J2">
-        <v>1.017460404865341</v>
+        <v>1.020567080691597</v>
       </c>
       <c r="K2">
-        <v>1.025655638524991</v>
+        <v>1.028242272986303</v>
       </c>
       <c r="L2">
-        <v>0.9718565956534383</v>
+        <v>0.9728195204406066</v>
       </c>
       <c r="M2">
-        <v>1.001501619435263</v>
+        <v>1.00362300989757</v>
+      </c>
+      <c r="N2">
+        <v>1.02201640300686</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004674553365012</v>
+        <v>1.00784910504432</v>
       </c>
       <c r="D3">
-        <v>1.021937478895392</v>
+        <v>1.024539737517665</v>
       </c>
       <c r="E3">
-        <v>0.9688844686717978</v>
+        <v>0.9698387129642191</v>
       </c>
       <c r="F3">
-        <v>0.999862537669488</v>
+        <v>1.001985138148576</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046306854728064</v>
+        <v>1.047798435707941</v>
       </c>
       <c r="J3">
-        <v>1.025038591464072</v>
+        <v>1.028128058766705</v>
       </c>
       <c r="K3">
-        <v>1.032297153988979</v>
+        <v>1.034867968327037</v>
       </c>
       <c r="L3">
-        <v>0.9799315926775634</v>
+        <v>0.9808726350896425</v>
       </c>
       <c r="M3">
-        <v>1.010497177653956</v>
+        <v>1.01259268162048</v>
+      </c>
+      <c r="N3">
+        <v>1.02958811853809</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010588150246415</v>
+        <v>1.013746413727457</v>
       </c>
       <c r="D4">
-        <v>1.026614444883366</v>
+        <v>1.029205783441221</v>
       </c>
       <c r="E4">
-        <v>0.974460493076031</v>
+        <v>0.9754015051851052</v>
       </c>
       <c r="F4">
-        <v>1.006009734660295</v>
+        <v>1.008115794441877</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048707873287394</v>
+        <v>1.050194115964673</v>
       </c>
       <c r="J4">
-        <v>1.029724833959257</v>
+        <v>1.032804903471745</v>
       </c>
       <c r="K4">
-        <v>1.036401927500222</v>
+        <v>1.038964049441364</v>
       </c>
       <c r="L4">
-        <v>0.9848772543458983</v>
+        <v>0.985806167521835</v>
       </c>
       <c r="M4">
-        <v>1.016036164600588</v>
+        <v>1.018117245955588</v>
+      </c>
+      <c r="N4">
+        <v>1.034271604899053</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013016906872177</v>
+        <v>1.016168814359591</v>
       </c>
       <c r="D5">
-        <v>1.028535470330949</v>
+        <v>1.03112257282373</v>
       </c>
       <c r="E5">
-        <v>0.9767394222023508</v>
+        <v>0.9776753164023526</v>
       </c>
       <c r="F5">
-        <v>1.008528375761653</v>
+        <v>1.010628006103521</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049689386397245</v>
+        <v>1.051173589216823</v>
       </c>
       <c r="J5">
-        <v>1.031646977711752</v>
+        <v>1.034723458681867</v>
       </c>
       <c r="K5">
-        <v>1.03808499472558</v>
+        <v>1.04064378514826</v>
       </c>
       <c r="L5">
-        <v>0.9868950510526412</v>
+        <v>0.9878192843452603</v>
       </c>
       <c r="M5">
-        <v>1.018302902880606</v>
+        <v>1.020378404156019</v>
+      </c>
+      <c r="N5">
+        <v>1.036192884677635</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01342147787557</v>
+        <v>1.016572345175483</v>
       </c>
       <c r="D6">
-        <v>1.028855472010968</v>
+        <v>1.031441882745647</v>
       </c>
       <c r="E6">
-        <v>0.977118397577019</v>
+        <v>0.9780534567407726</v>
       </c>
       <c r="F6">
-        <v>1.008947577552187</v>
+        <v>1.011046157058448</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049852611285038</v>
+        <v>1.05133648284216</v>
       </c>
       <c r="J6">
-        <v>1.03196701082777</v>
+        <v>1.03504290914155</v>
       </c>
       <c r="K6">
-        <v>1.038365187062846</v>
+        <v>1.040923435836923</v>
       </c>
       <c r="L6">
-        <v>0.9872303962742656</v>
+        <v>0.9881538666879632</v>
       </c>
       <c r="M6">
-        <v>1.01868001966446</v>
+        <v>1.020754610470464</v>
+      </c>
+      <c r="N6">
+        <v>1.036512788793612</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010620822513055</v>
+        <v>1.013778999217192</v>
       </c>
       <c r="D7">
-        <v>1.026640286529098</v>
+        <v>1.029231567150867</v>
       </c>
       <c r="E7">
-        <v>0.9744911932741839</v>
+        <v>0.9754321353328294</v>
       </c>
       <c r="F7">
-        <v>1.006043639431917</v>
+        <v>1.008149611337584</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048721095126783</v>
+        <v>1.050207309778786</v>
       </c>
       <c r="J7">
-        <v>1.029750701165604</v>
+        <v>1.032830721367475</v>
       </c>
       <c r="K7">
-        <v>1.036424579678489</v>
+        <v>1.03898665589083</v>
       </c>
       <c r="L7">
-        <v>0.9849044506136032</v>
+        <v>0.9858332996875049</v>
       </c>
       <c r="M7">
-        <v>1.016066689079745</v>
+        <v>1.018147694061876</v>
+      </c>
+      <c r="N7">
+        <v>1.034297459459157</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9984148474385903</v>
+        <v>1.001607934225236</v>
       </c>
       <c r="D8">
-        <v>1.0169877024937</v>
+        <v>1.019602483129634</v>
       </c>
       <c r="E8">
-        <v>0.962940501690113</v>
+        <v>0.9639099962868362</v>
       </c>
       <c r="F8">
-        <v>0.9933326282347452</v>
+        <v>0.9954741599246872</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043749099514652</v>
+        <v>1.045246919035451</v>
       </c>
       <c r="J8">
-        <v>1.020069131737306</v>
+        <v>1.023169596326424</v>
       </c>
       <c r="K8">
-        <v>1.027942378043831</v>
+        <v>1.030523314919891</v>
       </c>
       <c r="L8">
-        <v>0.9746470220746549</v>
+        <v>0.9756020863664061</v>
       </c>
       <c r="M8">
-        <v>1.004603677212784</v>
+        <v>1.00671578761685</v>
+      </c>
+      <c r="N8">
+        <v>1.0246226145124</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9746441125514033</v>
+        <v>0.9779208363197512</v>
       </c>
       <c r="D9">
-        <v>0.9982062129491711</v>
+        <v>1.000878370517955</v>
       </c>
       <c r="E9">
-        <v>0.9399836111757062</v>
+        <v>0.9410242032315006</v>
       </c>
       <c r="F9">
-        <v>0.9683145674292942</v>
+        <v>0.9705428726541496</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033905700246181</v>
+        <v>1.035433154976714</v>
       </c>
       <c r="J9">
-        <v>1.001125159793366</v>
+        <v>1.004278103943907</v>
       </c>
       <c r="K9">
-        <v>1.011328460293405</v>
+        <v>1.013957212830275</v>
       </c>
       <c r="L9">
-        <v>0.9541317394604789</v>
+        <v>0.9551525393061868</v>
       </c>
       <c r="M9">
-        <v>0.9819435260565703</v>
+        <v>0.9841326630345791</v>
+      </c>
+      <c r="N9">
+        <v>1.005704294043816</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9568080809754311</v>
+        <v>0.9601634482384291</v>
       </c>
       <c r="D10">
-        <v>0.9841364871758373</v>
+        <v>0.9868634460173027</v>
       </c>
       <c r="E10">
-        <v>0.9223528450043184</v>
+        <v>0.9234633700256398</v>
       </c>
       <c r="F10">
-        <v>0.9492982088126326</v>
+        <v>0.9516100021737138</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02640758249063</v>
+        <v>1.027964323254578</v>
       </c>
       <c r="J10">
-        <v>0.9868467295467725</v>
+        <v>0.9900518815767108</v>
       </c>
       <c r="K10">
-        <v>0.9987981936012778</v>
+        <v>1.001474006088854</v>
       </c>
       <c r="L10">
-        <v>0.9382814129885597</v>
+        <v>0.9393671738794577</v>
       </c>
       <c r="M10">
-        <v>0.9646474923631551</v>
+        <v>0.9669116014171443</v>
+      </c>
+      <c r="N10">
+        <v>0.9914578688090878</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9484704146020045</v>
+        <v>0.9518680790910277</v>
       </c>
       <c r="D11">
-        <v>0.9775679407389726</v>
+        <v>0.9803246079063643</v>
       </c>
       <c r="E11">
-        <v>0.9139869870347691</v>
+        <v>0.9151362759934912</v>
       </c>
       <c r="F11">
-        <v>0.9403306759062819</v>
+        <v>0.9426880982561155</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022875139791082</v>
+        <v>1.024448012386373</v>
       </c>
       <c r="J11">
-        <v>0.9801559244823075</v>
+        <v>0.9833899538783052</v>
       </c>
       <c r="K11">
-        <v>0.9929256650723945</v>
+        <v>0.9956273630543516</v>
       </c>
       <c r="L11">
-        <v>0.9307362460497477</v>
+        <v>0.9318580773990904</v>
       </c>
       <c r="M11">
-        <v>0.9564729875338268</v>
+        <v>0.9587782942539761</v>
+      </c>
+      <c r="N11">
+        <v>0.9847864804092166</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9452648311940776</v>
+        <v>0.9486798075867824</v>
       </c>
       <c r="D12">
-        <v>0.9750441288589268</v>
+        <v>0.9778129945931344</v>
       </c>
       <c r="E12">
-        <v>0.9107487000138185</v>
+        <v>0.9119140800033823</v>
       </c>
       <c r="F12">
-        <v>0.9368688776294398</v>
+        <v>0.9392451188212421</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021512828955237</v>
+        <v>1.023092366534686</v>
       </c>
       <c r="J12">
-        <v>0.9775809596657358</v>
+        <v>0.9808269410871018</v>
       </c>
       <c r="K12">
-        <v>0.9906655875891778</v>
+        <v>0.9933779752189416</v>
       </c>
       <c r="L12">
-        <v>0.9278118490353402</v>
+        <v>0.9289486614777615</v>
       </c>
       <c r="M12">
-        <v>0.9533144783903152</v>
+        <v>0.955636811604669</v>
+      </c>
+      <c r="N12">
+        <v>0.9822198278458681</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9459576650879081</v>
+        <v>0.9493688481685961</v>
       </c>
       <c r="D13">
-        <v>0.9755895314992999</v>
+        <v>0.9783557225065537</v>
       </c>
       <c r="E13">
-        <v>0.9114496482788901</v>
+        <v>0.9126114913876715</v>
       </c>
       <c r="F13">
-        <v>0.9376177650647461</v>
+        <v>0.9399898756863698</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021807460351822</v>
+        <v>1.023385534645269</v>
       </c>
       <c r="J13">
-        <v>0.9781376130031908</v>
+        <v>0.9813809693851164</v>
       </c>
       <c r="K13">
-        <v>0.9911541681415214</v>
+        <v>0.9938642091036453</v>
       </c>
       <c r="L13">
-        <v>0.9284450269028182</v>
+        <v>0.9295785460963747</v>
       </c>
       <c r="M13">
-        <v>0.953997885746475</v>
+        <v>0.9563164801920333</v>
+      </c>
+      <c r="N13">
+        <v>0.982774642927614</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9482077657788998</v>
+        <v>0.9516068260068781</v>
       </c>
       <c r="D14">
-        <v>0.9773611184894047</v>
+        <v>0.9801187683406057</v>
       </c>
       <c r="E14">
-        <v>0.9137221213901934</v>
+        <v>0.914872702846882</v>
       </c>
       <c r="F14">
-        <v>0.9400473332031141</v>
+        <v>0.9424062697206748</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022763604278046</v>
+        <v>1.024337012957483</v>
       </c>
       <c r="J14">
-        <v>0.9799449975535344</v>
+        <v>0.9831799878514477</v>
       </c>
       <c r="K14">
-        <v>0.9927405318287972</v>
+        <v>0.9954430897105853</v>
       </c>
       <c r="L14">
-        <v>0.9304971312720172</v>
+        <v>0.9316201658131162</v>
       </c>
       <c r="M14">
-        <v>0.9562145266533785</v>
+        <v>0.9585212026223066</v>
+      </c>
+      <c r="N14">
+        <v>0.9845762162065179</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9495791733711089</v>
+        <v>0.9529709896944552</v>
       </c>
       <c r="D15">
-        <v>0.9784410969653724</v>
+        <v>0.9811936482426894</v>
       </c>
       <c r="E15">
-        <v>0.9151041999118542</v>
+        <v>0.9162480824970844</v>
       </c>
       <c r="F15">
-        <v>0.9415262102319868</v>
+        <v>0.9438772940619998</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023345811520292</v>
+        <v>1.024916440402983</v>
       </c>
       <c r="J15">
-        <v>0.9810462380978358</v>
+        <v>0.9842762466067535</v>
       </c>
       <c r="K15">
-        <v>0.9937071042306016</v>
+        <v>0.9964052030103909</v>
       </c>
       <c r="L15">
-        <v>0.9317446874033213</v>
+        <v>0.9328614862467876</v>
       </c>
       <c r="M15">
-        <v>0.9575634201379052</v>
+        <v>0.9598629963835351</v>
+      </c>
+      <c r="N15">
+        <v>0.9856740317749985</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9573471842883547</v>
+        <v>0.9606999459944709</v>
       </c>
       <c r="D16">
-        <v>0.9845614002759506</v>
+        <v>0.9872865338375281</v>
       </c>
       <c r="E16">
-        <v>0.9228909925090029</v>
+        <v>0.9239991554810796</v>
       </c>
       <c r="F16">
-        <v>0.9498762677433894</v>
+        <v>0.9521852667004002</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026635421773894</v>
+        <v>1.028191176485847</v>
       </c>
       <c r="J16">
-        <v>0.9872790098402101</v>
+        <v>0.9904823992717787</v>
       </c>
       <c r="K16">
-        <v>0.9991775966339264</v>
+        <v>1.001851826217247</v>
       </c>
       <c r="L16">
-        <v>0.938766266442622</v>
+        <v>0.9398498305061082</v>
       </c>
       <c r="M16">
-        <v>0.9651740525939979</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9674356430120977</v>
+      </c>
+      <c r="N16">
+        <v>0.9918889978886639</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9620451163654851</v>
+        <v>0.9653758030925002</v>
       </c>
       <c r="D17">
-        <v>0.9882652150045846</v>
+        <v>0.9909749086421971</v>
       </c>
       <c r="E17">
-        <v>0.9275665605232488</v>
+        <v>0.9286548337563806</v>
       </c>
       <c r="F17">
-        <v>0.9549048162143292</v>
+        <v>0.9571902173841128</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028617854903254</v>
+        <v>1.030165294986674</v>
       </c>
       <c r="J17">
-        <v>0.9910442474302303</v>
+        <v>0.994232786657422</v>
       </c>
       <c r="K17">
-        <v>1.002482174270436</v>
+        <v>1.005143052772324</v>
       </c>
       <c r="L17">
-        <v>0.9429761339266234</v>
+        <v>0.9440412057137084</v>
       </c>
       <c r="M17">
-        <v>0.9697525924258953</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9719929366574006</v>
+      </c>
+      <c r="N17">
+        <v>0.9956447112545702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9647273384207729</v>
+        <v>0.9680459144521247</v>
       </c>
       <c r="D18">
-        <v>0.9903806204833946</v>
+        <v>0.9930818630370888</v>
       </c>
       <c r="E18">
-        <v>0.9302248252034465</v>
+        <v>0.9313022802966821</v>
       </c>
       <c r="F18">
-        <v>0.957768781443093</v>
+        <v>0.9600412954862538</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029747186688486</v>
+        <v>1.031290097038982</v>
       </c>
       <c r="J18">
-        <v>0.9931924795048738</v>
+        <v>0.9963729382407641</v>
       </c>
       <c r="K18">
-        <v>1.004367488821939</v>
+        <v>1.007021090700624</v>
       </c>
       <c r="L18">
-        <v>0.9453674372177093</v>
+        <v>0.9464224562115042</v>
       </c>
       <c r="M18">
-        <v>0.9723585982808933</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9745873581642905</v>
+      </c>
+      <c r="N18">
+        <v>0.9977879020986394</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9656324955772221</v>
+        <v>0.9689470630693988</v>
       </c>
       <c r="D19">
-        <v>0.9910946174550345</v>
+        <v>0.9937930659968512</v>
       </c>
       <c r="E19">
-        <v>0.9311200785652486</v>
+        <v>0.9321939677170842</v>
       </c>
       <c r="F19">
-        <v>0.9587341371560021</v>
+        <v>0.9610023949412643</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03012787277378</v>
+        <v>1.031669289107789</v>
       </c>
       <c r="J19">
-        <v>0.993917185124945</v>
+        <v>0.9970949802930551</v>
       </c>
       <c r="K19">
-        <v>1.005003481053231</v>
+        <v>1.007654682386294</v>
       </c>
       <c r="L19">
-        <v>0.946172415563628</v>
+        <v>0.9472241218137247</v>
       </c>
       <c r="M19">
-        <v>0.9732367248057322</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9754616618074811</v>
+      </c>
+      <c r="N19">
+        <v>0.9985109695334641</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9615471761620813</v>
+        <v>0.9648801499793466</v>
       </c>
       <c r="D20">
-        <v>0.9878725611875055</v>
+        <v>0.9905838523997647</v>
       </c>
       <c r="E20">
-        <v>0.9270721770158122</v>
+        <v>0.9281625007319767</v>
       </c>
       <c r="F20">
-        <v>0.9543725794277164</v>
+        <v>0.9566604190255101</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028407996553227</v>
+        <v>1.029956294682835</v>
       </c>
       <c r="J20">
-        <v>0.9906453198495566</v>
+        <v>0.9938353905195243</v>
       </c>
       <c r="K20">
-        <v>1.00213206249624</v>
+        <v>1.00479431911507</v>
       </c>
       <c r="L20">
-        <v>0.9425312222730217</v>
+        <v>0.9435981999235039</v>
       </c>
       <c r="M20">
-        <v>0.9692681599805333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9715106976670068</v>
+      </c>
+      <c r="N20">
+        <v>0.9952467507685745</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9475483184623399</v>
+        <v>0.9509509007451679</v>
       </c>
       <c r="D21">
-        <v>0.9768418648815316</v>
+        <v>0.9796019951040765</v>
       </c>
       <c r="E21">
-        <v>0.913056745477423</v>
+        <v>0.9142105922257503</v>
       </c>
       <c r="F21">
-        <v>0.9393356945492595</v>
+        <v>0.9416984543626905</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022483498261472</v>
+        <v>1.024058260717041</v>
       </c>
       <c r="J21">
-        <v>0.9794153700080781</v>
+        <v>0.9826527872197521</v>
       </c>
       <c r="K21">
-        <v>0.9922756709773216</v>
+        <v>0.9949804002886288</v>
       </c>
       <c r="L21">
-        <v>0.9298963836714321</v>
+        <v>0.9310224580089412</v>
       </c>
       <c r="M21">
-        <v>0.9555653347742926</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9578754686779531</v>
+      </c>
+      <c r="N21">
+        <v>0.9840482668894542</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9381066013726199</v>
+        <v>0.9415625122594302</v>
       </c>
       <c r="D22">
-        <v>0.9694117062420406</v>
+        <v>0.9722094971420254</v>
       </c>
       <c r="E22">
-        <v>0.9034722650418909</v>
+        <v>0.9046762042448333</v>
       </c>
       <c r="F22">
-        <v>0.9291091290299976</v>
+        <v>0.931530194440126</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018462798789063</v>
+        <v>1.02005822324522</v>
       </c>
       <c r="J22">
-        <v>0.9718260106644462</v>
+        <v>0.9751005257403003</v>
       </c>
       <c r="K22">
-        <v>0.9856144926322646</v>
+        <v>0.9883523506356343</v>
       </c>
       <c r="L22">
-        <v>0.9212334556878589</v>
+        <v>0.9224061813795889</v>
       </c>
       <c r="M22">
-        <v>0.9462291123441938</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.948592070918602</v>
+      </c>
+      <c r="N22">
+        <v>0.976485280332445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9431792197923714</v>
+        <v>0.9466057907926674</v>
       </c>
       <c r="D23">
-        <v>0.9734025861821745</v>
+        <v>0.9761796336378167</v>
       </c>
       <c r="E23">
-        <v>0.9086351498025498</v>
+        <v>0.9098113789624345</v>
       </c>
       <c r="F23">
-        <v>0.9346122498216762</v>
+        <v>0.9370011409645246</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020625287910899</v>
+        <v>1.022209307847424</v>
       </c>
       <c r="J23">
-        <v>0.9759049011968389</v>
+        <v>0.9791589270356058</v>
       </c>
       <c r="K23">
-        <v>0.9891944989844331</v>
+        <v>0.9919140742084865</v>
       </c>
       <c r="L23">
-        <v>0.925902075456925</v>
+        <v>0.9270489908174416</v>
       </c>
       <c r="M23">
-        <v>0.9512547344360052</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9535885230551121</v>
+      </c>
+      <c r="N23">
+        <v>0.980549445023095</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9617723519689271</v>
+        <v>0.9651042900092953</v>
       </c>
       <c r="D24">
-        <v>0.98805012260641</v>
+        <v>0.9907606902478293</v>
       </c>
       <c r="E24">
-        <v>0.9272957790967774</v>
+        <v>0.9283851738968977</v>
       </c>
       <c r="F24">
-        <v>0.9546132863695153</v>
+        <v>0.9569000214676818</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028502905380559</v>
+        <v>1.030050814817892</v>
       </c>
       <c r="J24">
-        <v>0.9908257253152531</v>
+        <v>0.9940151022155395</v>
       </c>
       <c r="K24">
-        <v>1.002290392471263</v>
+        <v>1.004952024817188</v>
       </c>
       <c r="L24">
-        <v>0.9427324558228583</v>
+        <v>0.9437985700565131</v>
       </c>
       <c r="M24">
-        <v>0.9694872523287373</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9717287964187468</v>
+      </c>
+      <c r="N24">
+        <v>0.9954267176758113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9810998866511003</v>
+        <v>0.9843516839732223</v>
       </c>
       <c r="D25">
-        <v>1.003304072638122</v>
+        <v>1.005959010285733</v>
       </c>
       <c r="E25">
-        <v>0.9462786788853011</v>
+        <v>0.9472977117890792</v>
       </c>
       <c r="F25">
-        <v>0.9751446264581461</v>
+        <v>0.9773468467849162</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036597540643597</v>
+        <v>1.038115960966267</v>
       </c>
       <c r="J25">
-        <v>1.006280496793992</v>
+        <v>1.00941740142714</v>
       </c>
       <c r="K25">
-        <v>1.015851312754843</v>
+        <v>1.018465519279761</v>
       </c>
       <c r="L25">
-        <v>0.9597724252575687</v>
+        <v>0.9607732460457408</v>
       </c>
       <c r="M25">
-        <v>0.9881414472804508</v>
+        <v>0.9903073068744817</v>
+      </c>
+      <c r="N25">
+        <v>1.010850889918961</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_62/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9983365005444488</v>
+        <v>1.018427112716964</v>
       </c>
       <c r="D2">
-        <v>1.017015002060052</v>
+        <v>1.038721309596915</v>
       </c>
       <c r="E2">
-        <v>0.9607854111161656</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9920518223566018</v>
+        <v>1.043012952784126</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043903292581961</v>
+        <v>1.057702069211871</v>
       </c>
       <c r="J2">
-        <v>1.020567080691597</v>
+        <v>1.040070302170887</v>
       </c>
       <c r="K2">
-        <v>1.028242272986303</v>
+        <v>1.049666318023724</v>
       </c>
       <c r="L2">
-        <v>0.9728195204406066</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.00362300989757</v>
+        <v>1.053903888928267</v>
       </c>
       <c r="N2">
-        <v>1.02201640300686</v>
+        <v>1.041547321297701</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00784910504432</v>
+        <v>1.026141097726201</v>
       </c>
       <c r="D3">
-        <v>1.024539737517665</v>
+        <v>1.044850259855542</v>
       </c>
       <c r="E3">
-        <v>0.9698387129642191</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.001985138148576</v>
+        <v>1.049689494035073</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047798435707941</v>
+        <v>1.060491311325525</v>
       </c>
       <c r="J3">
-        <v>1.028128058766705</v>
+        <v>1.045943638310057</v>
       </c>
       <c r="K3">
-        <v>1.034867968327037</v>
+        <v>1.054939716805952</v>
       </c>
       <c r="L3">
-        <v>0.9808726350896425</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.01259268162048</v>
+        <v>1.059723741309687</v>
       </c>
       <c r="N3">
-        <v>1.02958811853809</v>
+        <v>1.04742899824787</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013746413727457</v>
+        <v>1.030976002188039</v>
       </c>
       <c r="D4">
-        <v>1.029205783441221</v>
+        <v>1.048693611979961</v>
       </c>
       <c r="E4">
-        <v>0.9754015051851052</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.008115794441877</v>
+        <v>1.053879523474513</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050194115964673</v>
+        <v>1.062224525927279</v>
       </c>
       <c r="J4">
-        <v>1.032804903471745</v>
+        <v>1.04961921027279</v>
       </c>
       <c r="K4">
-        <v>1.038964049441364</v>
+        <v>1.058237829718402</v>
       </c>
       <c r="L4">
-        <v>0.985806167521835</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.018117245955588</v>
+        <v>1.063368413301054</v>
       </c>
       <c r="N4">
-        <v>1.034271604899053</v>
+        <v>1.051109789944383</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016168814359591</v>
+        <v>1.0329732731456</v>
       </c>
       <c r="D5">
-        <v>1.03112257282373</v>
+        <v>1.050281624322911</v>
       </c>
       <c r="E5">
-        <v>0.9776753164023526</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.010628006103521</v>
+        <v>1.055611574805317</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051173589216823</v>
+        <v>1.062936837804456</v>
       </c>
       <c r="J5">
-        <v>1.034723458681867</v>
+        <v>1.051136147073648</v>
       </c>
       <c r="K5">
-        <v>1.04064378514826</v>
+        <v>1.059598474203154</v>
       </c>
       <c r="L5">
-        <v>0.9878192843452603</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.020378404156019</v>
+        <v>1.064873181514561</v>
       </c>
       <c r="N5">
-        <v>1.036192884677635</v>
+        <v>1.052628880969495</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016572345175483</v>
+        <v>1.03330661161317</v>
       </c>
       <c r="D6">
-        <v>1.031441882745647</v>
+        <v>1.050546676042493</v>
       </c>
       <c r="E6">
-        <v>0.9780534567407726</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.011046157058448</v>
+        <v>1.055900714877999</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05133648284216</v>
+        <v>1.063055502730162</v>
       </c>
       <c r="J6">
-        <v>1.03504290914155</v>
+        <v>1.051389233963405</v>
       </c>
       <c r="K6">
-        <v>1.040923435836923</v>
+        <v>1.05982545422986</v>
       </c>
       <c r="L6">
-        <v>0.9881538666879632</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.020754610470464</v>
+        <v>1.06512427164054</v>
       </c>
       <c r="N6">
-        <v>1.036512788793612</v>
+        <v>1.052882327271664</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013778999217192</v>
+        <v>1.031002825902356</v>
       </c>
       <c r="D7">
-        <v>1.029231567150867</v>
+        <v>1.048714938047133</v>
       </c>
       <c r="E7">
-        <v>0.9754321353328294</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>1.008149611337584</v>
+        <v>1.053902780733404</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050207309778786</v>
+        <v>1.062234107022775</v>
       </c>
       <c r="J7">
-        <v>1.032830721367475</v>
+        <v>1.049639588714295</v>
       </c>
       <c r="K7">
-        <v>1.03898665589083</v>
+        <v>1.058256110603274</v>
       </c>
       <c r="L7">
-        <v>0.9858332996875049</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.018147694061876</v>
+        <v>1.063388625998425</v>
       </c>
       <c r="N7">
-        <v>1.034297459459157</v>
+        <v>1.051130197325613</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001607934225236</v>
+        <v>1.02106786803585</v>
       </c>
       <c r="D8">
-        <v>1.019602483129634</v>
+        <v>1.040818981904925</v>
       </c>
       <c r="E8">
-        <v>0.9639099962868362</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>0.9954741599246872</v>
+        <v>1.045297350411002</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045246919035451</v>
+        <v>1.058660046509126</v>
       </c>
       <c r="J8">
-        <v>1.023169596326424</v>
+        <v>1.042082100290934</v>
       </c>
       <c r="K8">
-        <v>1.030523314919891</v>
+        <v>1.051473027068952</v>
       </c>
       <c r="L8">
-        <v>0.9756020863664061</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.00671578761685</v>
+        <v>1.055896802472394</v>
       </c>
       <c r="N8">
-        <v>1.0246226145124</v>
+        <v>1.043561976401834</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9779208363197512</v>
+        <v>1.002253899067462</v>
       </c>
       <c r="D9">
-        <v>1.000878370517955</v>
+        <v>1.025887562150174</v>
       </c>
       <c r="E9">
-        <v>0.9410242032315006</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9705428726541496</v>
+        <v>1.029050785308343</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035433154976714</v>
+        <v>1.051772949347665</v>
       </c>
       <c r="J9">
-        <v>1.004278103943907</v>
+        <v>1.027727316635062</v>
       </c>
       <c r="K9">
-        <v>1.013957212830275</v>
+        <v>1.038574144173762</v>
       </c>
       <c r="L9">
-        <v>0.9551525393061868</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>0.9841326630345791</v>
+        <v>1.041689483309168</v>
       </c>
       <c r="N9">
-        <v>1.005704294043816</v>
+        <v>1.029186807306655</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9601634482384291</v>
+        <v>0.9886601078415769</v>
       </c>
       <c r="D10">
-        <v>0.9868634460173027</v>
+        <v>1.01512274392386</v>
       </c>
       <c r="E10">
-        <v>0.9234633700256398</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="F10">
-        <v>0.9516100021737138</v>
+        <v>1.017355446437012</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027964323254578</v>
+        <v>1.046720875276169</v>
       </c>
       <c r="J10">
-        <v>0.9900518815767108</v>
+        <v>1.017330979644778</v>
       </c>
       <c r="K10">
-        <v>1.001474006088854</v>
+        <v>1.029224217341026</v>
       </c>
       <c r="L10">
-        <v>0.9393671738794577</v>
+        <v>0.9517730114689356</v>
       </c>
       <c r="M10">
-        <v>0.9669116014171443</v>
+        <v>1.031418257362512</v>
       </c>
       <c r="N10">
-        <v>0.9914578688090878</v>
+        <v>1.018775706325368</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9518680790910277</v>
+        <v>0.9824786744689685</v>
       </c>
       <c r="D11">
-        <v>0.9803246079063643</v>
+        <v>1.010235725353427</v>
       </c>
       <c r="E11">
-        <v>0.9151362759934912</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="F11">
-        <v>0.9426880982561155</v>
+        <v>1.012050082595251</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024448012386373</v>
+        <v>1.04440687403037</v>
       </c>
       <c r="J11">
-        <v>0.9833899538783052</v>
+        <v>1.012598974263862</v>
       </c>
       <c r="K11">
-        <v>0.9956273630543516</v>
+        <v>1.024967158418736</v>
       </c>
       <c r="L11">
-        <v>0.9318580773990904</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9587782942539761</v>
+        <v>1.026748274492714</v>
       </c>
       <c r="N11">
-        <v>0.9847864804092166</v>
+        <v>1.014036980954043</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9486798075867824</v>
+        <v>0.9801336685584006</v>
       </c>
       <c r="D12">
-        <v>0.9778129945931344</v>
+        <v>1.008383207418826</v>
       </c>
       <c r="E12">
-        <v>0.9119140800033823</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9392451188212421</v>
+        <v>1.010039589374357</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023092366534686</v>
+        <v>1.043526648278407</v>
       </c>
       <c r="J12">
-        <v>0.9808269410871018</v>
+        <v>1.010803271656179</v>
       </c>
       <c r="K12">
-        <v>0.9933779752189416</v>
+        <v>1.023351541694621</v>
       </c>
       <c r="L12">
-        <v>0.9289486614777615</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.955636811604669</v>
+        <v>1.024976941592181</v>
       </c>
       <c r="N12">
-        <v>0.9822198278458681</v>
+        <v>1.012238728242686</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9493688481685961</v>
+        <v>0.9806389762680952</v>
       </c>
       <c r="D13">
-        <v>0.9783557225065537</v>
+        <v>1.008782323833775</v>
       </c>
       <c r="E13">
-        <v>0.9126114913876715</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9399898756863698</v>
+        <v>1.01047271360587</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023385534645269</v>
+        <v>1.043716426650478</v>
       </c>
       <c r="J13">
-        <v>0.9813809693851164</v>
+        <v>1.011190237018154</v>
       </c>
       <c r="K13">
-        <v>0.9938642091036453</v>
+        <v>1.023699705102426</v>
       </c>
       <c r="L13">
-        <v>0.9295785460963747</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9563164801920333</v>
+        <v>1.025358616576319</v>
       </c>
       <c r="N13">
-        <v>0.982774642927614</v>
+        <v>1.012626243139861</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9516068260068781</v>
+        <v>0.9822858629760026</v>
       </c>
       <c r="D14">
-        <v>0.9801187683406057</v>
+        <v>1.010083376785716</v>
       </c>
       <c r="E14">
-        <v>0.914872702846882</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9424062697206748</v>
+        <v>1.011884730110944</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024337012957483</v>
+        <v>1.044334547377865</v>
       </c>
       <c r="J14">
-        <v>0.9831799878514477</v>
+        <v>1.012451338170067</v>
       </c>
       <c r="K14">
-        <v>0.9954430897105853</v>
+        <v>1.024834330971562</v>
       </c>
       <c r="L14">
-        <v>0.9316201658131162</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9585212026223066</v>
+        <v>1.026602624665918</v>
       </c>
       <c r="N14">
-        <v>0.9845762162065179</v>
+        <v>1.013889135200061</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9529709896944552</v>
+        <v>0.9832939296881574</v>
       </c>
       <c r="D15">
-        <v>0.9811936482426894</v>
+        <v>1.010879952920252</v>
       </c>
       <c r="E15">
-        <v>0.9162480824970844</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9438772940619998</v>
+        <v>1.012749323653739</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024916440402983</v>
+        <v>1.044712593388106</v>
       </c>
       <c r="J15">
-        <v>0.9842762466067535</v>
+        <v>1.013223194814831</v>
       </c>
       <c r="K15">
-        <v>0.9964052030103909</v>
+        <v>1.025528760864454</v>
       </c>
       <c r="L15">
-        <v>0.9328614862467876</v>
+        <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9598629963835351</v>
+        <v>1.027364131177994</v>
       </c>
       <c r="N15">
-        <v>0.9856740317749985</v>
+        <v>1.014662087969793</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9606999459944709</v>
+        <v>0.9890637519556639</v>
       </c>
       <c r="D16">
-        <v>0.9872865338375281</v>
+        <v>1.015442047707976</v>
       </c>
       <c r="E16">
-        <v>0.9239991554810796</v>
+        <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.9521852667004002</v>
+        <v>1.017702167591618</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028191176485847</v>
+        <v>1.046871643876382</v>
       </c>
       <c r="J16">
-        <v>0.9904823992717787</v>
+        <v>1.017639893454389</v>
       </c>
       <c r="K16">
-        <v>1.001851826217247</v>
+        <v>1.029502102565493</v>
       </c>
       <c r="L16">
-        <v>0.9398498305061082</v>
+        <v>0.9519451749175714</v>
       </c>
       <c r="M16">
-        <v>0.9674356430120977</v>
+        <v>1.031723232774086</v>
       </c>
       <c r="N16">
-        <v>0.9918889978886639</v>
+        <v>1.019085058828022</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9653758030925002</v>
+        <v>0.992600926259691</v>
       </c>
       <c r="D17">
-        <v>0.9909749086421971</v>
+        <v>1.018241065545988</v>
       </c>
       <c r="E17">
-        <v>0.9286548337563806</v>
+        <v>0.9382760156855667</v>
       </c>
       <c r="F17">
-        <v>0.9571902173841128</v>
+        <v>1.020741986218639</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030165294986674</v>
+        <v>1.048190979187358</v>
       </c>
       <c r="J17">
-        <v>0.994232786657422</v>
+        <v>1.020346439687437</v>
       </c>
       <c r="K17">
-        <v>1.005143052772324</v>
+        <v>1.031936647398955</v>
       </c>
       <c r="L17">
-        <v>0.9440412057137084</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.9719929366574006</v>
+        <v>1.034395851428959</v>
       </c>
       <c r="N17">
-        <v>0.9956447112545702</v>
+        <v>1.021795448667166</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9680459144521247</v>
+        <v>0.9946359572593224</v>
       </c>
       <c r="D18">
-        <v>0.9930818630370888</v>
+        <v>1.019852149541973</v>
       </c>
       <c r="E18">
-        <v>0.9313022802966821</v>
+        <v>0.9393832867215686</v>
       </c>
       <c r="F18">
-        <v>0.9600412954862538</v>
+        <v>1.022492056884969</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031290097038982</v>
+        <v>1.04894845483138</v>
       </c>
       <c r="J18">
-        <v>0.9963729382407641</v>
+        <v>1.021903154610434</v>
       </c>
       <c r="K18">
-        <v>1.007021090700624</v>
+        <v>1.033336787122103</v>
       </c>
       <c r="L18">
-        <v>0.9464224562115042</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9745873581642905</v>
+        <v>1.035933522720837</v>
       </c>
       <c r="N18">
-        <v>0.9977879020986394</v>
+        <v>1.023354374303911</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9689470630693988</v>
+        <v>0.9953252056564165</v>
       </c>
       <c r="D19">
-        <v>0.9937930659968512</v>
+        <v>1.020397928698809</v>
       </c>
       <c r="E19">
-        <v>0.9321939677170842</v>
+        <v>0.9397594814684963</v>
       </c>
       <c r="F19">
-        <v>0.9610023949412643</v>
+        <v>1.023084985332248</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031669289107789</v>
+        <v>1.049204735211515</v>
       </c>
       <c r="J19">
-        <v>0.9970949802930551</v>
+        <v>1.022430324267475</v>
       </c>
       <c r="K19">
-        <v>1.007654682386294</v>
+        <v>1.033810910380552</v>
       </c>
       <c r="L19">
-        <v>0.9472241218137247</v>
+        <v>0.9546352493816589</v>
       </c>
       <c r="M19">
-        <v>0.9754616618074811</v>
+        <v>1.036454321242092</v>
       </c>
       <c r="N19">
-        <v>0.9985109695334641</v>
+        <v>1.023882292602333</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9648801499793466</v>
+        <v>0.9922243629768921</v>
       </c>
       <c r="D20">
-        <v>0.9905838523997647</v>
+        <v>1.017943007620215</v>
       </c>
       <c r="E20">
-        <v>0.9281625007319767</v>
+        <v>0.9380716924660144</v>
       </c>
       <c r="F20">
-        <v>0.9566604190255101</v>
+        <v>1.020418246330395</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029956294682835</v>
+        <v>1.048050687078061</v>
       </c>
       <c r="J20">
-        <v>0.9938353905195243</v>
+        <v>1.020058348304925</v>
       </c>
       <c r="K20">
-        <v>1.00479431911507</v>
+        <v>1.03167752156979</v>
       </c>
       <c r="L20">
-        <v>0.9435981999235039</v>
+        <v>0.9532985019057445</v>
       </c>
       <c r="M20">
-        <v>0.9715106976670068</v>
+        <v>1.034111321993508</v>
       </c>
       <c r="N20">
-        <v>0.9952467507685745</v>
+        <v>1.021506948161846</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9509509007451679</v>
+        <v>0.9818022872786317</v>
       </c>
       <c r="D21">
-        <v>0.9796019951040765</v>
+        <v>1.00970130694313</v>
       </c>
       <c r="E21">
-        <v>0.9142105922257503</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9416984543626905</v>
+        <v>1.011470057903125</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024058260717041</v>
+        <v>1.044153112677525</v>
       </c>
       <c r="J21">
-        <v>0.9826527872197521</v>
+        <v>1.012081054944647</v>
       </c>
       <c r="K21">
-        <v>0.9949804002886288</v>
+        <v>1.024501186859404</v>
       </c>
       <c r="L21">
-        <v>0.9310224580089412</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9578754686779531</v>
+        <v>1.026237336805294</v>
       </c>
       <c r="N21">
-        <v>0.9840482668894542</v>
+        <v>1.013518326129988</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9415625122594302</v>
+        <v>0.9749635353673972</v>
       </c>
       <c r="D22">
-        <v>0.9722094971420254</v>
+        <v>1.004301816179657</v>
       </c>
       <c r="E22">
-        <v>0.9046762042448333</v>
+        <v>0.9288972953651159</v>
       </c>
       <c r="F22">
-        <v>0.931530194440126</v>
+        <v>1.005611263627897</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02005822324522</v>
+        <v>1.041581739068796</v>
       </c>
       <c r="J22">
-        <v>0.9751005257403003</v>
+        <v>1.006843337621996</v>
       </c>
       <c r="K22">
-        <v>0.9883523506356343</v>
+        <v>1.019788532245667</v>
       </c>
       <c r="L22">
-        <v>0.9224061813795889</v>
+        <v>0.9460223821572513</v>
       </c>
       <c r="M22">
-        <v>0.948592070918602</v>
+        <v>1.021072373884335</v>
       </c>
       <c r="N22">
-        <v>0.976485280332445</v>
+        <v>1.008273170647964</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9466057907926674</v>
+        <v>0.9786177105459669</v>
       </c>
       <c r="D23">
-        <v>0.9761796336378167</v>
+        <v>1.007186060449671</v>
       </c>
       <c r="E23">
-        <v>0.9098113789624345</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>0.9370011409645246</v>
+        <v>1.008740524437815</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022209307847424</v>
+        <v>1.042956961971194</v>
       </c>
       <c r="J23">
-        <v>0.9791589270356058</v>
+        <v>1.009642277938422</v>
       </c>
       <c r="K23">
-        <v>0.9919140742084865</v>
+        <v>1.022306946599352</v>
       </c>
       <c r="L23">
-        <v>0.9270489908174416</v>
+        <v>0.9475391330285315</v>
       </c>
       <c r="M23">
-        <v>0.9535885230551121</v>
+        <v>1.023831948451822</v>
       </c>
       <c r="N23">
-        <v>0.980549445023095</v>
+        <v>1.011076085780683</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9651042900092953</v>
+        <v>0.9923946023458976</v>
       </c>
       <c r="D24">
-        <v>0.9907606902478293</v>
+        <v>1.018077753472012</v>
       </c>
       <c r="E24">
-        <v>0.9283851738968977</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>0.9569000214676818</v>
+        <v>1.020564601273583</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030050814817892</v>
+        <v>1.048114116217749</v>
       </c>
       <c r="J24">
-        <v>0.9940151022155395</v>
+        <v>1.020188592033556</v>
       </c>
       <c r="K24">
-        <v>1.004952024817188</v>
+        <v>1.031794670616812</v>
       </c>
       <c r="L24">
-        <v>0.9437985700565131</v>
+        <v>0.9533716596442539</v>
       </c>
       <c r="M24">
-        <v>0.9717287964187468</v>
+        <v>1.034239953938328</v>
       </c>
       <c r="N24">
-        <v>0.9954267176758113</v>
+        <v>1.021637376851511</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9843516839732223</v>
+        <v>1.007289117311395</v>
       </c>
       <c r="D25">
-        <v>1.005959010285733</v>
+        <v>1.029880370839838</v>
       </c>
       <c r="E25">
-        <v>0.9472977117890792</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9773468467849162</v>
+        <v>1.033392253245605</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038115960966267</v>
+        <v>1.053629417099718</v>
       </c>
       <c r="J25">
-        <v>1.00941740142714</v>
+        <v>1.031573639236418</v>
       </c>
       <c r="K25">
-        <v>1.018465519279761</v>
+        <v>1.042031887635097</v>
       </c>
       <c r="L25">
-        <v>0.9607732460457408</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>0.9903073068744817</v>
+        <v>1.045493405092115</v>
       </c>
       <c r="N25">
-        <v>1.010850889918961</v>
+        <v>1.033038592127284</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_62/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018427112716964</v>
+        <v>1.012954434538963</v>
       </c>
       <c r="D2">
-        <v>1.038721309596915</v>
+        <v>1.02816974004563</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>1.02162144034404</v>
       </c>
       <c r="F2">
-        <v>1.043012952784126</v>
+        <v>1.029446860556237</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057702069211871</v>
+        <v>1.047501557277607</v>
       </c>
       <c r="J2">
-        <v>1.040070302170887</v>
+        <v>1.034754465939515</v>
       </c>
       <c r="K2">
-        <v>1.049666318023724</v>
+        <v>1.039250094376827</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.032787553159465</v>
       </c>
       <c r="M2">
-        <v>1.053903888928267</v>
+        <v>1.040510648466371</v>
       </c>
       <c r="N2">
-        <v>1.041547321297701</v>
+        <v>1.015217304873467</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026141097726201</v>
+        <v>1.017603776611073</v>
       </c>
       <c r="D3">
-        <v>1.044850259855542</v>
+        <v>1.031645797125124</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>1.026496023205338</v>
       </c>
       <c r="F3">
-        <v>1.049689494035073</v>
+        <v>1.034504095409204</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060491311325525</v>
+        <v>1.049008625209201</v>
       </c>
       <c r="J3">
-        <v>1.045943638310057</v>
+        <v>1.03762578351006</v>
       </c>
       <c r="K3">
-        <v>1.054939716805952</v>
+        <v>1.04188916339792</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>1.036800745558487</v>
       </c>
       <c r="M3">
-        <v>1.059723741309687</v>
+        <v>1.044713733356528</v>
       </c>
       <c r="N3">
-        <v>1.04742899824787</v>
+        <v>1.016193250994187</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030976002188039</v>
+        <v>1.020547047209834</v>
       </c>
       <c r="D4">
-        <v>1.048693611979961</v>
+        <v>1.033848844558192</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>1.029591015885521</v>
       </c>
       <c r="F4">
-        <v>1.053879523474513</v>
+        <v>1.03771343170249</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.062224525927279</v>
+        <v>1.049953732246328</v>
       </c>
       <c r="J4">
-        <v>1.04961921027279</v>
+        <v>1.039439371055829</v>
       </c>
       <c r="K4">
-        <v>1.058237829718402</v>
+        <v>1.043555212013923</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>1.03934495396176</v>
       </c>
       <c r="M4">
-        <v>1.063368413301054</v>
+        <v>1.047377037387239</v>
       </c>
       <c r="N4">
-        <v>1.051109789944383</v>
+        <v>1.016809448348209</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0329732731456</v>
+        <v>1.021769369112877</v>
       </c>
       <c r="D5">
-        <v>1.050281624322911</v>
+        <v>1.034764313024465</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>1.030878543232387</v>
       </c>
       <c r="F5">
-        <v>1.055611574805317</v>
+        <v>1.039048137404209</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062936837804456</v>
+        <v>1.050344049399923</v>
       </c>
       <c r="J5">
-        <v>1.051136147073648</v>
+        <v>1.040191527183051</v>
       </c>
       <c r="K5">
-        <v>1.059598474203154</v>
+        <v>1.044245966042685</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>1.04040241865405</v>
       </c>
       <c r="M5">
-        <v>1.064873181514561</v>
+        <v>1.04848369118614</v>
       </c>
       <c r="N5">
-        <v>1.052628880969495</v>
+        <v>1.01706494573812</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03330661161317</v>
+        <v>1.021973737080975</v>
       </c>
       <c r="D6">
-        <v>1.050546676042493</v>
+        <v>1.034917407483924</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>1.031093942589288</v>
       </c>
       <c r="F6">
-        <v>1.055900714877999</v>
+        <v>1.03927140672818</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063055502730162</v>
+        <v>1.050409179938147</v>
       </c>
       <c r="J6">
-        <v>1.051389233963405</v>
+        <v>1.040317224483307</v>
       </c>
       <c r="K6">
-        <v>1.05982545422986</v>
+        <v>1.044361389281955</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>1.040579274112341</v>
       </c>
       <c r="M6">
-        <v>1.06512427164054</v>
+        <v>1.048668754904723</v>
       </c>
       <c r="N6">
-        <v>1.052882327271664</v>
+        <v>1.017107639732491</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031002825902356</v>
+        <v>1.020563438254093</v>
       </c>
       <c r="D7">
-        <v>1.048714938047133</v>
+        <v>1.033861118635816</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>1.029608272634231</v>
       </c>
       <c r="F7">
-        <v>1.053902780733404</v>
+        <v>1.037731322317666</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.062234107022775</v>
+        <v>1.049958974964031</v>
       </c>
       <c r="J7">
-        <v>1.049639588714295</v>
+        <v>1.039449461342418</v>
       </c>
       <c r="K7">
-        <v>1.058256110603274</v>
+        <v>1.04356447943603</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>1.039359130876297</v>
       </c>
       <c r="M7">
-        <v>1.063388625998425</v>
+        <v>1.047391874988708</v>
       </c>
       <c r="N7">
-        <v>1.051130197325613</v>
+        <v>1.016812876129446</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02106786803585</v>
+        <v>1.014539548135885</v>
       </c>
       <c r="D8">
-        <v>1.040818981904925</v>
+        <v>1.029354281185313</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>1.023281431793414</v>
       </c>
       <c r="F8">
-        <v>1.045297350411002</v>
+        <v>1.031169393902131</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058660046509126</v>
+        <v>1.048017222490148</v>
       </c>
       <c r="J8">
-        <v>1.042082100290934</v>
+        <v>1.035734234420562</v>
       </c>
       <c r="K8">
-        <v>1.051473027068952</v>
+        <v>1.040150785277468</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>1.034155012061492</v>
       </c>
       <c r="M8">
-        <v>1.055896802472394</v>
+        <v>1.041943080476558</v>
       </c>
       <c r="N8">
-        <v>1.043561976401834</v>
+        <v>1.015550368860961</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002253899067462</v>
+        <v>1.00339828363067</v>
       </c>
       <c r="D9">
-        <v>1.025887562150174</v>
+        <v>1.021041398924064</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>1.011652575654105</v>
       </c>
       <c r="F9">
-        <v>1.029050785308343</v>
+        <v>1.019095463357005</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051772949347665</v>
+        <v>1.044356141353993</v>
       </c>
       <c r="J9">
-        <v>1.027727316635062</v>
+        <v>1.028831607827719</v>
       </c>
       <c r="K9">
-        <v>1.038574144173762</v>
+        <v>1.033802075306203</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>1.024559385189516</v>
       </c>
       <c r="M9">
-        <v>1.041689483309168</v>
+        <v>1.031886144919413</v>
       </c>
       <c r="N9">
-        <v>1.029186807306655</v>
+        <v>1.013203093284594</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9886601078415769</v>
+        <v>0.9955759417579736</v>
       </c>
       <c r="D10">
-        <v>1.01512274392386</v>
+        <v>1.015223771583127</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>1.003537027948259</v>
       </c>
       <c r="F10">
-        <v>1.017355446437012</v>
+        <v>1.010660406813531</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046720875276169</v>
+        <v>1.041740653109439</v>
       </c>
       <c r="J10">
-        <v>1.017330979644778</v>
+        <v>1.023966192714153</v>
       </c>
       <c r="K10">
-        <v>1.029224217341026</v>
+        <v>1.029323490805301</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>1.017842712583397</v>
       </c>
       <c r="M10">
-        <v>1.031418257362512</v>
+        <v>1.024839815468802</v>
       </c>
       <c r="N10">
-        <v>1.018775706325368</v>
+        <v>1.011547806250724</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9824786744689685</v>
+        <v>0.992085135929646</v>
       </c>
       <c r="D11">
-        <v>1.010235725353427</v>
+        <v>1.012632928724689</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9999270165133017</v>
       </c>
       <c r="F11">
-        <v>1.012050082595251</v>
+        <v>1.006906129313947</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04440687403037</v>
+        <v>1.04056330333702</v>
       </c>
       <c r="J11">
-        <v>1.012598974263862</v>
+        <v>1.021790930112699</v>
       </c>
       <c r="K11">
-        <v>1.024967158418736</v>
+        <v>1.027320475097754</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>1.01485030932719</v>
       </c>
       <c r="M11">
-        <v>1.026748274492714</v>
+        <v>1.021698970860966</v>
       </c>
       <c r="N11">
-        <v>1.014036980954043</v>
+        <v>1.010807638937051</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9801336685584006</v>
+        <v>0.9907719910257621</v>
       </c>
       <c r="D12">
-        <v>1.008383207418826</v>
+        <v>1.01165920388081</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.998570777860909</v>
       </c>
       <c r="F12">
-        <v>1.010039589374357</v>
+        <v>1.005495367450006</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043526648278407</v>
+        <v>1.04011893682439</v>
       </c>
       <c r="J12">
-        <v>1.010803271656179</v>
+        <v>1.020972097339354</v>
       </c>
       <c r="K12">
-        <v>1.023351541694621</v>
+        <v>1.026566389724558</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>1.013725410831033</v>
       </c>
       <c r="M12">
-        <v>1.024976941592181</v>
+        <v>1.020518036803175</v>
       </c>
       <c r="N12">
-        <v>1.012238728242686</v>
+        <v>1.010529008003962</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9806389762680952</v>
+        <v>0.99105442759453</v>
       </c>
       <c r="D13">
-        <v>1.008782323833775</v>
+        <v>1.011868595617732</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9988624042468899</v>
       </c>
       <c r="F13">
-        <v>1.01047271360587</v>
+        <v>1.005798732427147</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043716426650478</v>
+        <v>1.040214579080695</v>
       </c>
       <c r="J13">
-        <v>1.011190237018154</v>
+        <v>1.021148239747159</v>
       </c>
       <c r="K13">
-        <v>1.023699705102426</v>
+        <v>1.026728607960028</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>1.013967324007219</v>
       </c>
       <c r="M13">
-        <v>1.025358616576319</v>
+        <v>1.02077201113337</v>
       </c>
       <c r="N13">
-        <v>1.012626243139861</v>
+        <v>1.010588945780157</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9822858629760026</v>
+        <v>0.991976933259174</v>
       </c>
       <c r="D14">
-        <v>1.010083376785716</v>
+        <v>1.012552675831224</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9998152274160613</v>
       </c>
       <c r="F14">
-        <v>1.011884730110944</v>
+        <v>1.006789852700811</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044334547377865</v>
+        <v>1.040526717493302</v>
       </c>
       <c r="J14">
-        <v>1.012451338170067</v>
+        <v>1.021723469677749</v>
       </c>
       <c r="K14">
-        <v>1.024834330971562</v>
+        <v>1.027258350723592</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>1.014757602555477</v>
       </c>
       <c r="M14">
-        <v>1.026602624665918</v>
+        <v>1.021601650741007</v>
       </c>
       <c r="N14">
-        <v>1.013889135200061</v>
+        <v>1.010784683792367</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9832939296881574</v>
+        <v>0.9925431035296516</v>
       </c>
       <c r="D15">
-        <v>1.010879952920252</v>
+        <v>1.012972635220759</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>1.000400234881046</v>
       </c>
       <c r="F15">
-        <v>1.012749323653739</v>
+        <v>1.007398330712818</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044712593388106</v>
+        <v>1.040718092830797</v>
       </c>
       <c r="J15">
-        <v>1.013223194814831</v>
+        <v>1.022076433773515</v>
       </c>
       <c r="K15">
-        <v>1.025528760864454</v>
+        <v>1.027583392031781</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>1.015242721650017</v>
       </c>
       <c r="M15">
-        <v>1.027364131177994</v>
+        <v>1.022110901206347</v>
       </c>
       <c r="N15">
-        <v>1.014662087969793</v>
+        <v>1.010904788509177</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9890637519556639</v>
+        <v>0.995805353069576</v>
       </c>
       <c r="D16">
-        <v>1.015442047707976</v>
+        <v>1.015394155972776</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>1.003774515538344</v>
       </c>
       <c r="F16">
-        <v>1.017702167591618</v>
+        <v>1.010907340245436</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046871643876382</v>
+        <v>1.041817819422913</v>
       </c>
       <c r="J16">
-        <v>1.017639893454389</v>
+        <v>1.024109068287665</v>
       </c>
       <c r="K16">
-        <v>1.029502102565493</v>
+        <v>1.029455039447531</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>1.018039474289731</v>
       </c>
       <c r="M16">
-        <v>1.031723232774086</v>
+        <v>1.02504630519734</v>
       </c>
       <c r="N16">
-        <v>1.019085058828022</v>
+        <v>1.011596420149753</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.992600926259691</v>
+        <v>0.9978232851450937</v>
       </c>
       <c r="D17">
-        <v>1.018241065545988</v>
+        <v>1.016893495249845</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855667</v>
+        <v>1.005864810984331</v>
       </c>
       <c r="F17">
-        <v>1.020741986218639</v>
+        <v>1.013080531175419</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048190979187358</v>
+        <v>1.042495434820319</v>
       </c>
       <c r="J17">
-        <v>1.020346439687437</v>
+        <v>1.025365369051239</v>
       </c>
       <c r="K17">
-        <v>1.031936647398955</v>
+        <v>1.030611664945759</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>1.019770784349274</v>
       </c>
       <c r="M17">
-        <v>1.034395851428959</v>
+        <v>1.026863033609712</v>
       </c>
       <c r="N17">
-        <v>1.021795448667166</v>
+        <v>1.012023868974413</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9946359572593224</v>
+        <v>0.9989903734432635</v>
       </c>
       <c r="D18">
-        <v>1.019852149541973</v>
+        <v>1.017761151458379</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215686</v>
+        <v>1.007074854376405</v>
       </c>
       <c r="F18">
-        <v>1.022492056884969</v>
+        <v>1.014338358634011</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04894845483138</v>
+        <v>1.042886373618695</v>
       </c>
       <c r="J18">
-        <v>1.021903154610434</v>
+        <v>1.026091577590136</v>
       </c>
       <c r="K18">
-        <v>1.033336787122103</v>
+        <v>1.031280188700971</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>1.020772573945081</v>
       </c>
       <c r="M18">
-        <v>1.035933522720837</v>
+        <v>1.027914099523285</v>
       </c>
       <c r="N18">
-        <v>1.023354374303911</v>
+        <v>1.012270946210174</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9953252056564165</v>
+        <v>0.999386661859706</v>
       </c>
       <c r="D19">
-        <v>1.020397928698809</v>
+        <v>1.018055849461367</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684963</v>
+        <v>1.007485915475496</v>
       </c>
       <c r="F19">
-        <v>1.023084985332248</v>
+        <v>1.014765617992423</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049204735211515</v>
+        <v>1.043018952903012</v>
       </c>
       <c r="J19">
-        <v>1.022430324267475</v>
+        <v>1.02633809753717</v>
       </c>
       <c r="K19">
-        <v>1.033810910380552</v>
+        <v>1.031507115079317</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816589</v>
+        <v>1.021112814330135</v>
       </c>
       <c r="M19">
-        <v>1.036454321242092</v>
+        <v>1.028271050336584</v>
       </c>
       <c r="N19">
-        <v>1.023882292602333</v>
+        <v>1.012354817423029</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9922243629768921</v>
+        <v>0.9976078144728028</v>
       </c>
       <c r="D20">
-        <v>1.017943007620215</v>
+        <v>1.016733346386776</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660144</v>
+        <v>1.005641499031548</v>
       </c>
       <c r="F20">
-        <v>1.020418246330395</v>
+        <v>1.012848384348366</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048050687078061</v>
+        <v>1.042423180338115</v>
       </c>
       <c r="J20">
-        <v>1.020058348304925</v>
+        <v>1.025231263331317</v>
       </c>
       <c r="K20">
-        <v>1.03167752156979</v>
+        <v>1.030488206090258</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057445</v>
+        <v>1.019585869569526</v>
       </c>
       <c r="M20">
-        <v>1.034111321993508</v>
+        <v>1.026669011095242</v>
       </c>
       <c r="N20">
-        <v>1.021506948161846</v>
+        <v>1.011978241389138</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9818022872786317</v>
+        <v>0.9917057417388512</v>
       </c>
       <c r="D21">
-        <v>1.00970130694313</v>
+        <v>1.01235155007734</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9995350752805823</v>
       </c>
       <c r="F21">
-        <v>1.011470057903125</v>
+        <v>1.006498449271557</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044153112677525</v>
+        <v>1.040434997648533</v>
       </c>
       <c r="J21">
-        <v>1.012081054944647</v>
+        <v>1.021554382768722</v>
       </c>
       <c r="K21">
-        <v>1.024501186859404</v>
+        <v>1.027102637015858</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>1.014525261160034</v>
       </c>
       <c r="M21">
-        <v>1.026237336805294</v>
+        <v>1.021357743631295</v>
       </c>
       <c r="N21">
-        <v>1.013518326129988</v>
+        <v>1.010727147488849</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9749635353673972</v>
+        <v>0.9878988732847789</v>
       </c>
       <c r="D22">
-        <v>1.004301816179657</v>
+        <v>1.009530431249481</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651159</v>
+        <v>0.9956065877228053</v>
       </c>
       <c r="F22">
-        <v>1.005611263627897</v>
+        <v>1.002411412534755</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041581739068796</v>
+        <v>1.039144007942301</v>
       </c>
       <c r="J22">
-        <v>1.006843337621996</v>
+        <v>1.019179541170342</v>
       </c>
       <c r="K22">
-        <v>1.019788532245667</v>
+        <v>1.024915423528799</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572513</v>
+        <v>1.011265584296845</v>
       </c>
       <c r="M22">
-        <v>1.021072373884335</v>
+        <v>1.017935249754916</v>
       </c>
       <c r="N22">
-        <v>1.008273170647964</v>
+        <v>1.009919028644789</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9786177105459669</v>
+        <v>0.9899263948879755</v>
       </c>
       <c r="D23">
-        <v>1.007186060449671</v>
+        <v>1.01103243400094</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963312</v>
+        <v>0.9976979241705115</v>
       </c>
       <c r="F23">
-        <v>1.008740524437815</v>
+        <v>1.004587331801604</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042956961971194</v>
+        <v>1.039832377115062</v>
       </c>
       <c r="J23">
-        <v>1.009642277938422</v>
+        <v>1.020444660427324</v>
       </c>
       <c r="K23">
-        <v>1.022306946599352</v>
+        <v>1.026080634741537</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285315</v>
+        <v>1.013001251530229</v>
       </c>
       <c r="M23">
-        <v>1.023831948451822</v>
+        <v>1.019757738771199</v>
       </c>
       <c r="N23">
-        <v>1.011076085780683</v>
+        <v>1.010349530662672</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9923946023458976</v>
+        <v>0.9977052070361589</v>
       </c>
       <c r="D24">
-        <v>1.018077753472012</v>
+        <v>1.016805731992293</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>1.005742432425911</v>
       </c>
       <c r="F24">
-        <v>1.020564601273583</v>
+        <v>1.012953311592254</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048114116217749</v>
+        <v>1.042455842302518</v>
       </c>
       <c r="J24">
-        <v>1.020188592033556</v>
+        <v>1.025291880197923</v>
       </c>
       <c r="K24">
-        <v>1.031794670616812</v>
+        <v>1.030544010697766</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442539</v>
+        <v>1.019669449433382</v>
       </c>
       <c r="M24">
-        <v>1.034239953938328</v>
+        <v>1.026756708038965</v>
       </c>
       <c r="N24">
-        <v>1.021637376851511</v>
+        <v>1.011998865459774</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007289117311395</v>
+        <v>1.00634498429054</v>
       </c>
       <c r="D25">
-        <v>1.029880370839838</v>
+        <v>1.023237051975414</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>1.014719777199489</v>
       </c>
       <c r="F25">
-        <v>1.033392253245605</v>
+        <v>1.022281583431023</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053629417099718</v>
+        <v>1.045332354484063</v>
       </c>
       <c r="J25">
-        <v>1.031573639236418</v>
+        <v>1.030660685066455</v>
       </c>
       <c r="K25">
-        <v>1.042031887635097</v>
+        <v>1.035485042483606</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>1.027093805549768</v>
       </c>
       <c r="M25">
-        <v>1.045493405092115</v>
+        <v>1.03454358009657</v>
       </c>
       <c r="N25">
-        <v>1.033038592127284</v>
+        <v>1.013825237842322</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_62/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.012954434538963</v>
+        <v>1.03888266680073</v>
       </c>
       <c r="D2">
-        <v>1.02816974004563</v>
+        <v>1.042267144998042</v>
       </c>
       <c r="E2">
-        <v>1.02162144034404</v>
+        <v>1.05607053928482</v>
       </c>
       <c r="F2">
-        <v>1.029446860556237</v>
+        <v>1.062674356131369</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047501557277607</v>
+        <v>1.040645688227272</v>
       </c>
       <c r="J2">
-        <v>1.034754465939515</v>
+        <v>1.043977693024201</v>
       </c>
       <c r="K2">
-        <v>1.039250094376827</v>
+        <v>1.045044315519916</v>
       </c>
       <c r="L2">
-        <v>1.032787553159465</v>
+        <v>1.05880925935154</v>
       </c>
       <c r="M2">
-        <v>1.040510648466371</v>
+        <v>1.06539506323659</v>
       </c>
       <c r="N2">
-        <v>1.015217304873467</v>
+        <v>1.01855334139399</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017603776611073</v>
+        <v>1.03984310399646</v>
       </c>
       <c r="D3">
-        <v>1.031645797125124</v>
+        <v>1.043002576049184</v>
       </c>
       <c r="E3">
-        <v>1.026496023205338</v>
+        <v>1.057182019370021</v>
       </c>
       <c r="F3">
-        <v>1.034504095409204</v>
+        <v>1.063817617615216</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049008625209201</v>
+        <v>1.040904277526378</v>
       </c>
       <c r="J3">
-        <v>1.03762578351006</v>
+        <v>1.044583051955594</v>
       </c>
       <c r="K3">
-        <v>1.04188916339792</v>
+        <v>1.045590740876615</v>
       </c>
       <c r="L3">
-        <v>1.036800745558487</v>
+        <v>1.059733546959199</v>
       </c>
       <c r="M3">
-        <v>1.044713733356528</v>
+        <v>1.06635236148839</v>
       </c>
       <c r="N3">
-        <v>1.016193250994187</v>
+        <v>1.0187572271746</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.020547047209834</v>
+        <v>1.040464664828921</v>
       </c>
       <c r="D4">
-        <v>1.033848844558192</v>
+        <v>1.043478499644876</v>
       </c>
       <c r="E4">
-        <v>1.029591015885521</v>
+        <v>1.057902214138186</v>
       </c>
       <c r="F4">
-        <v>1.03771343170249</v>
+        <v>1.064558262947926</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049953732246328</v>
+        <v>1.04107050100455</v>
       </c>
       <c r="J4">
-        <v>1.039439371055829</v>
+        <v>1.044974238528252</v>
       </c>
       <c r="K4">
-        <v>1.043555212013923</v>
+        <v>1.045943697944438</v>
       </c>
       <c r="L4">
-        <v>1.03934495396176</v>
+        <v>1.060332023662407</v>
       </c>
       <c r="M4">
-        <v>1.047377037387239</v>
+        <v>1.066972089172042</v>
       </c>
       <c r="N4">
-        <v>1.016809448348209</v>
+        <v>1.018888906341151</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.021769369112877</v>
+        <v>1.040725991007356</v>
       </c>
       <c r="D5">
-        <v>1.034764313024465</v>
+        <v>1.043678589099605</v>
       </c>
       <c r="E5">
-        <v>1.030878543232387</v>
+        <v>1.058205221535299</v>
       </c>
       <c r="F5">
-        <v>1.039048137404209</v>
+        <v>1.064869840431396</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050344049399923</v>
+        <v>1.041140117433978</v>
       </c>
       <c r="J5">
-        <v>1.040191527183051</v>
+        <v>1.04513856807497</v>
       </c>
       <c r="K5">
-        <v>1.044245966042685</v>
+        <v>1.046091932871477</v>
       </c>
       <c r="L5">
-        <v>1.04040241865405</v>
+        <v>1.060583719057317</v>
       </c>
       <c r="M5">
-        <v>1.04848369118614</v>
+        <v>1.067232692312183</v>
       </c>
       <c r="N5">
-        <v>1.01706494573812</v>
+        <v>1.018944204502883</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.021973737080975</v>
+        <v>1.040769870100311</v>
       </c>
       <c r="D6">
-        <v>1.034917407483924</v>
+        <v>1.043712185628007</v>
       </c>
       <c r="E6">
-        <v>1.031093942589288</v>
+        <v>1.058256111733888</v>
       </c>
       <c r="F6">
-        <v>1.03927140672818</v>
+        <v>1.064922167982235</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050409179938147</v>
+        <v>1.041151790853169</v>
       </c>
       <c r="J6">
-        <v>1.040317224483307</v>
+        <v>1.045166152366674</v>
       </c>
       <c r="K6">
-        <v>1.044361389281955</v>
+        <v>1.046116813458901</v>
       </c>
       <c r="L6">
-        <v>1.040579274112341</v>
+        <v>1.060625985434009</v>
       </c>
       <c r="M6">
-        <v>1.048668754904723</v>
+        <v>1.06727645280275</v>
       </c>
       <c r="N6">
-        <v>1.017107639732491</v>
+        <v>1.018953485795874</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.020563438254093</v>
+        <v>1.040468156596181</v>
       </c>
       <c r="D7">
-        <v>1.033861118635816</v>
+        <v>1.043481173207208</v>
       </c>
       <c r="E7">
-        <v>1.029608272634231</v>
+        <v>1.057906262004775</v>
       </c>
       <c r="F7">
-        <v>1.037731322317666</v>
+        <v>1.064562425435831</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049958974964031</v>
+        <v>1.041071432260108</v>
       </c>
       <c r="J7">
-        <v>1.039449461342418</v>
+        <v>1.044976434800652</v>
       </c>
       <c r="K7">
-        <v>1.04356447943603</v>
+        <v>1.045945679249945</v>
       </c>
       <c r="L7">
-        <v>1.039359130876297</v>
+        <v>1.060335386452406</v>
       </c>
       <c r="M7">
-        <v>1.047391874988708</v>
+        <v>1.066975571090643</v>
       </c>
       <c r="N7">
-        <v>1.016812876129446</v>
+        <v>1.018889645473026</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.014539548135885</v>
+        <v>1.039207231373311</v>
       </c>
       <c r="D8">
-        <v>1.029354281185313</v>
+        <v>1.042515676349027</v>
       </c>
       <c r="E8">
-        <v>1.023281431793414</v>
+        <v>1.056445963508266</v>
       </c>
       <c r="F8">
-        <v>1.031169393902131</v>
+        <v>1.06306054465222</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048017222490148</v>
+        <v>1.040733307488106</v>
       </c>
       <c r="J8">
-        <v>1.035734234420562</v>
+        <v>1.044182384496406</v>
       </c>
       <c r="K8">
-        <v>1.040150785277468</v>
+        <v>1.045229109859279</v>
       </c>
       <c r="L8">
-        <v>1.034155012061492</v>
+        <v>1.059121543582619</v>
       </c>
       <c r="M8">
-        <v>1.041943080476558</v>
+        <v>1.065718526135091</v>
       </c>
       <c r="N8">
-        <v>1.015550368860961</v>
+        <v>1.018622296863886</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.00339828363067</v>
+        <v>1.036986057082567</v>
       </c>
       <c r="D9">
-        <v>1.021041398924064</v>
+        <v>1.040814775002965</v>
       </c>
       <c r="E9">
-        <v>1.011652575654105</v>
+        <v>1.053880342141856</v>
       </c>
       <c r="F9">
-        <v>1.019095463357005</v>
+        <v>1.06042077630492</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044356141353993</v>
+        <v>1.040129069370208</v>
       </c>
       <c r="J9">
-        <v>1.028831607827719</v>
+        <v>1.042779198246837</v>
       </c>
       <c r="K9">
-        <v>1.033802075306203</v>
+        <v>1.043961725948965</v>
       </c>
       <c r="L9">
-        <v>1.024559385189516</v>
+        <v>1.056985674335859</v>
       </c>
       <c r="M9">
-        <v>1.031886144919413</v>
+        <v>1.063505695586717</v>
       </c>
       <c r="N9">
-        <v>1.013203093284594</v>
+        <v>1.018149301799634</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9955759417579736</v>
+        <v>1.035505793260821</v>
       </c>
       <c r="D10">
-        <v>1.015223771583127</v>
+        <v>1.039681181479719</v>
       </c>
       <c r="E10">
-        <v>1.003537027948259</v>
+        <v>1.05217505253646</v>
       </c>
       <c r="F10">
-        <v>1.010660406813531</v>
+        <v>1.058665468367816</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041740653109439</v>
+        <v>1.039720601509367</v>
       </c>
       <c r="J10">
-        <v>1.023966192714153</v>
+        <v>1.041841102516359</v>
       </c>
       <c r="K10">
-        <v>1.029323490805301</v>
+        <v>1.043113678980278</v>
       </c>
       <c r="L10">
-        <v>1.017842712583397</v>
+        <v>1.055563837839129</v>
       </c>
       <c r="M10">
-        <v>1.024839815468802</v>
+        <v>1.062031993591883</v>
       </c>
       <c r="N10">
-        <v>1.011547806250724</v>
+        <v>1.017832713698319</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.992085135929646</v>
+        <v>1.034864950005094</v>
       </c>
       <c r="D11">
-        <v>1.012632928724689</v>
+        <v>1.039190414602316</v>
       </c>
       <c r="E11">
-        <v>0.9999270165133017</v>
+        <v>1.051437859539488</v>
       </c>
       <c r="F11">
-        <v>1.006906129313947</v>
+        <v>1.057906477693044</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04056330333702</v>
+        <v>1.039542395643088</v>
       </c>
       <c r="J11">
-        <v>1.021790930112699</v>
+        <v>1.04143427675317</v>
       </c>
       <c r="K11">
-        <v>1.027320475097754</v>
+        <v>1.042745730916178</v>
       </c>
       <c r="L11">
-        <v>1.01485030932719</v>
+        <v>1.054948660291674</v>
       </c>
       <c r="M11">
-        <v>1.021698970860966</v>
+        <v>1.061394225882357</v>
       </c>
       <c r="N11">
-        <v>1.010807638937051</v>
+        <v>1.017695332054812</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9907719910257621</v>
+        <v>1.034626930673876</v>
       </c>
       <c r="D12">
-        <v>1.01165920388081</v>
+        <v>1.039008135764261</v>
       </c>
       <c r="E12">
-        <v>0.998570777860909</v>
+        <v>1.051164214788294</v>
       </c>
       <c r="F12">
-        <v>1.005495367450006</v>
+        <v>1.057624715366021</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04011893682439</v>
+        <v>1.039476001481397</v>
       </c>
       <c r="J12">
-        <v>1.020972097339354</v>
+        <v>1.041283070185777</v>
       </c>
       <c r="K12">
-        <v>1.026566389724558</v>
+        <v>1.042608948207443</v>
       </c>
       <c r="L12">
-        <v>1.013725410831033</v>
+        <v>1.054720229113524</v>
       </c>
       <c r="M12">
-        <v>1.020518036803175</v>
+        <v>1.061157383908106</v>
       </c>
       <c r="N12">
-        <v>1.010529008003962</v>
+        <v>1.017644258000268</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.99105442759453</v>
+        <v>1.034677985792332</v>
       </c>
       <c r="D13">
-        <v>1.011868595617732</v>
+        <v>1.039047234554702</v>
       </c>
       <c r="E13">
-        <v>0.9988624042468899</v>
+        <v>1.051222904301261</v>
       </c>
       <c r="F13">
-        <v>1.005798732427147</v>
+        <v>1.057685147074534</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040214579080695</v>
+        <v>1.039490252326746</v>
       </c>
       <c r="J13">
-        <v>1.021148239747159</v>
+        <v>1.04131550872626</v>
       </c>
       <c r="K13">
-        <v>1.026728607960028</v>
+        <v>1.042638293551562</v>
       </c>
       <c r="L13">
-        <v>1.013967324007219</v>
+        <v>1.054769225066542</v>
       </c>
       <c r="M13">
-        <v>1.02077201113337</v>
+        <v>1.06120818490103</v>
       </c>
       <c r="N13">
-        <v>1.010588945780157</v>
+        <v>1.017655215563925</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.991976933259174</v>
+        <v>1.034845274876385</v>
       </c>
       <c r="D14">
-        <v>1.012552675831224</v>
+        <v>1.039175347089793</v>
       </c>
       <c r="E14">
-        <v>0.9998152274160613</v>
+        <v>1.051415236275579</v>
       </c>
       <c r="F14">
-        <v>1.006789852700811</v>
+        <v>1.057883183855128</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040526717493302</v>
+        <v>1.039536911571115</v>
       </c>
       <c r="J14">
-        <v>1.021723469677749</v>
+        <v>1.041421779873427</v>
       </c>
       <c r="K14">
-        <v>1.027258350723592</v>
+        <v>1.042734426664449</v>
       </c>
       <c r="L14">
-        <v>1.014757602555477</v>
+        <v>1.054929776606999</v>
       </c>
       <c r="M14">
-        <v>1.021601650741007</v>
+        <v>1.061374647362439</v>
       </c>
       <c r="N14">
-        <v>1.010784683792367</v>
+        <v>1.017691111161956</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9925431035296516</v>
+        <v>1.034948349646273</v>
       </c>
       <c r="D15">
-        <v>1.012972635220759</v>
+        <v>1.03925428330828</v>
       </c>
       <c r="E15">
-        <v>1.000400234881046</v>
+        <v>1.051533762409083</v>
       </c>
       <c r="F15">
-        <v>1.007398330712818</v>
+        <v>1.058005222132198</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040718092830797</v>
+        <v>1.039565633301448</v>
       </c>
       <c r="J15">
-        <v>1.022076433773515</v>
+        <v>1.041487244674872</v>
       </c>
       <c r="K15">
-        <v>1.027583392031781</v>
+        <v>1.042793642831456</v>
       </c>
       <c r="L15">
-        <v>1.015242721650017</v>
+        <v>1.05502870740308</v>
       </c>
       <c r="M15">
-        <v>1.022110901206347</v>
+        <v>1.061477217448859</v>
       </c>
       <c r="N15">
-        <v>1.010904788509177</v>
+        <v>1.017713221748138</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.995805353069576</v>
+        <v>1.035548326482111</v>
       </c>
       <c r="D16">
-        <v>1.015394155972776</v>
+        <v>1.039713753955719</v>
       </c>
       <c r="E16">
-        <v>1.003774515538344</v>
+        <v>1.052224003069606</v>
       </c>
       <c r="F16">
-        <v>1.010907340245436</v>
+        <v>1.058715862603579</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041817819422913</v>
+        <v>1.039732400305785</v>
       </c>
       <c r="J16">
-        <v>1.024109068287665</v>
+        <v>1.041868089087187</v>
       </c>
       <c r="K16">
-        <v>1.029455039447531</v>
+        <v>1.043138082970955</v>
       </c>
       <c r="L16">
-        <v>1.018039474289731</v>
+        <v>1.055604675406572</v>
       </c>
       <c r="M16">
-        <v>1.02504630519734</v>
+        <v>1.062074327614744</v>
       </c>
       <c r="N16">
-        <v>1.011596420149753</v>
+        <v>1.017841825028131</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9978232851450937</v>
+        <v>1.035924708600687</v>
       </c>
       <c r="D17">
-        <v>1.016893495249845</v>
+        <v>1.040001991518805</v>
       </c>
       <c r="E17">
-        <v>1.005864810984331</v>
+        <v>1.05265729636477</v>
       </c>
       <c r="F17">
-        <v>1.013080531175419</v>
+        <v>1.059161914834934</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042495434820319</v>
+        <v>1.039836651167335</v>
       </c>
       <c r="J17">
-        <v>1.025365369051239</v>
+        <v>1.042106815913799</v>
       </c>
       <c r="K17">
-        <v>1.030611664945759</v>
+        <v>1.043353943891328</v>
       </c>
       <c r="L17">
-        <v>1.019770784349274</v>
+        <v>1.055966095297875</v>
       </c>
       <c r="M17">
-        <v>1.026863033609712</v>
+        <v>1.062448974095561</v>
       </c>
       <c r="N17">
-        <v>1.012023868974413</v>
+        <v>1.017922415127194</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9989903734432635</v>
+        <v>1.036144257556243</v>
       </c>
       <c r="D18">
-        <v>1.017761151458379</v>
+        <v>1.040170123913287</v>
       </c>
       <c r="E18">
-        <v>1.007074854376405</v>
+        <v>1.052910145632889</v>
       </c>
       <c r="F18">
-        <v>1.014338358634011</v>
+        <v>1.059422192723799</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042886373618695</v>
+        <v>1.039897329953706</v>
       </c>
       <c r="J18">
-        <v>1.026091577590136</v>
+        <v>1.042246000987127</v>
       </c>
       <c r="K18">
-        <v>1.031280188700971</v>
+        <v>1.043479780662939</v>
       </c>
       <c r="L18">
-        <v>1.020772573945081</v>
+        <v>1.056176952398808</v>
       </c>
       <c r="M18">
-        <v>1.027914099523285</v>
+        <v>1.062667533298145</v>
       </c>
       <c r="N18">
-        <v>1.012270946210174</v>
+        <v>1.017969393307156</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.999386661859706</v>
+        <v>1.036219120042248</v>
       </c>
       <c r="D19">
-        <v>1.018055849461367</v>
+        <v>1.040227454097788</v>
       </c>
       <c r="E19">
-        <v>1.007485915475496</v>
+        <v>1.052996380481005</v>
       </c>
       <c r="F19">
-        <v>1.014765617992423</v>
+        <v>1.059510958258211</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043018952903012</v>
+        <v>1.03991799796774</v>
       </c>
       <c r="J19">
-        <v>1.02633809753717</v>
+        <v>1.042293449269334</v>
       </c>
       <c r="K19">
-        <v>1.031507115079317</v>
+        <v>1.04352267565009</v>
       </c>
       <c r="L19">
-        <v>1.021112814330135</v>
+        <v>1.056248857192664</v>
       </c>
       <c r="M19">
-        <v>1.028271050336584</v>
+        <v>1.062742062146878</v>
       </c>
       <c r="N19">
-        <v>1.012354817423029</v>
+        <v>1.017985406784595</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9976078144728028</v>
+        <v>1.035884325156217</v>
       </c>
       <c r="D20">
-        <v>1.016733346386776</v>
+        <v>1.039971065491596</v>
       </c>
       <c r="E20">
-        <v>1.005641499031548</v>
+        <v>1.052610796032472</v>
       </c>
       <c r="F20">
-        <v>1.012848384348366</v>
+        <v>1.059114046980835</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042423180338115</v>
+        <v>1.039825479375495</v>
       </c>
       <c r="J20">
-        <v>1.025231263331317</v>
+        <v>1.042081209013127</v>
       </c>
       <c r="K20">
-        <v>1.030488206090258</v>
+        <v>1.04333079142378</v>
       </c>
       <c r="L20">
-        <v>1.019585869569526</v>
+        <v>1.055927313503313</v>
       </c>
       <c r="M20">
-        <v>1.026669011095242</v>
+        <v>1.06240877453105</v>
       </c>
       <c r="N20">
-        <v>1.011978241389138</v>
+        <v>1.017913771535292</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9917057417388512</v>
+        <v>1.034796011901119</v>
       </c>
       <c r="D21">
-        <v>1.01235155007734</v>
+        <v>1.03913762075292</v>
       </c>
       <c r="E21">
-        <v>0.9995350752805823</v>
+        <v>1.051358594291439</v>
       </c>
       <c r="F21">
-        <v>1.006498449271557</v>
+        <v>1.057824862526012</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040434997648533</v>
+        <v>1.03952317712134</v>
       </c>
       <c r="J21">
-        <v>1.021554382768722</v>
+        <v>1.04139048824342</v>
       </c>
       <c r="K21">
-        <v>1.027102637015858</v>
+        <v>1.042706120902882</v>
       </c>
       <c r="L21">
-        <v>1.014525261160034</v>
+        <v>1.054882496160695</v>
       </c>
       <c r="M21">
-        <v>1.021357743631295</v>
+        <v>1.061325626843637</v>
       </c>
       <c r="N21">
-        <v>1.010727147488849</v>
+        <v>1.017680542026838</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9878988732847789</v>
+        <v>1.034111852671771</v>
       </c>
       <c r="D22">
-        <v>1.009530431249481</v>
+        <v>1.038613681397647</v>
       </c>
       <c r="E22">
-        <v>0.9956065877228053</v>
+        <v>1.050572335744303</v>
       </c>
       <c r="F22">
-        <v>1.002411412534755</v>
+        <v>1.057015230280375</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039144007942301</v>
+        <v>1.039331947388971</v>
       </c>
       <c r="J22">
-        <v>1.019179541170342</v>
+        <v>1.040955664699796</v>
       </c>
       <c r="K22">
-        <v>1.024915423528799</v>
+        <v>1.042312727165811</v>
       </c>
       <c r="L22">
-        <v>1.011265584296845</v>
+        <v>1.054226001268741</v>
       </c>
       <c r="M22">
-        <v>1.017935249754916</v>
+        <v>1.060644917580378</v>
       </c>
       <c r="N22">
-        <v>1.009919028644789</v>
+        <v>1.017533644625577</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9899263948879755</v>
+        <v>1.034474528244891</v>
       </c>
       <c r="D23">
-        <v>1.01103243400094</v>
+        <v>1.03889142366526</v>
       </c>
       <c r="E23">
-        <v>0.9976979241705115</v>
+        <v>1.050989046722407</v>
       </c>
       <c r="F23">
-        <v>1.004587331801604</v>
+        <v>1.057444343587439</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039832377115062</v>
+        <v>1.039433431791715</v>
       </c>
       <c r="J23">
-        <v>1.020444660427324</v>
+        <v>1.041186223936729</v>
       </c>
       <c r="K23">
-        <v>1.026080634741537</v>
+        <v>1.042521332999012</v>
       </c>
       <c r="L23">
-        <v>1.013001251530229</v>
+        <v>1.054573981518707</v>
       </c>
       <c r="M23">
-        <v>1.019757738771199</v>
+        <v>1.061005745173732</v>
       </c>
       <c r="N23">
-        <v>1.010349530662672</v>
+        <v>1.017611541983927</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9977052070361589</v>
+        <v>1.035902572660464</v>
       </c>
       <c r="D24">
-        <v>1.016805731992293</v>
+        <v>1.039985039606492</v>
       </c>
       <c r="E24">
-        <v>1.005742432425911</v>
+        <v>1.052631807170588</v>
       </c>
       <c r="F24">
-        <v>1.012953311592254</v>
+        <v>1.059135676084741</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042455842302518</v>
+        <v>1.039830527825849</v>
       </c>
       <c r="J24">
-        <v>1.025291880197923</v>
+        <v>1.042092779855431</v>
       </c>
       <c r="K24">
-        <v>1.030544010697766</v>
+        <v>1.04334125324743</v>
       </c>
       <c r="L24">
-        <v>1.019669449433382</v>
+        <v>1.055944837181614</v>
       </c>
       <c r="M24">
-        <v>1.026756708038965</v>
+        <v>1.06242693887794</v>
       </c>
       <c r="N24">
-        <v>1.011998865459774</v>
+        <v>1.017917677290976</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.00634498429054</v>
+        <v>1.037560194123293</v>
       </c>
       <c r="D25">
-        <v>1.023237051975414</v>
+        <v>1.041254442616759</v>
       </c>
       <c r="E25">
-        <v>1.014719777199489</v>
+        <v>1.054542714065638</v>
       </c>
       <c r="F25">
-        <v>1.022281583431023</v>
+        <v>1.061102420495388</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045332354484063</v>
+        <v>1.040286275255822</v>
       </c>
       <c r="J25">
-        <v>1.030660685066455</v>
+        <v>1.043142422713255</v>
       </c>
       <c r="K25">
-        <v>1.035485042483606</v>
+        <v>1.044289928227594</v>
       </c>
       <c r="L25">
-        <v>1.027093805549768</v>
+        <v>1.057537482334883</v>
       </c>
       <c r="M25">
-        <v>1.03454358009657</v>
+        <v>1.064077498460743</v>
       </c>
       <c r="N25">
-        <v>1.013825237842322</v>
+        <v>1.018271805160151</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_62/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03888266680073</v>
+        <v>1.012954434538962</v>
       </c>
       <c r="D2">
-        <v>1.042267144998042</v>
+        <v>1.028169740045629</v>
       </c>
       <c r="E2">
-        <v>1.05607053928482</v>
+        <v>1.021621440344039</v>
       </c>
       <c r="F2">
-        <v>1.062674356131369</v>
+        <v>1.029446860556236</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040645688227272</v>
+        <v>1.047501557277607</v>
       </c>
       <c r="J2">
-        <v>1.043977693024201</v>
+        <v>1.034754465939514</v>
       </c>
       <c r="K2">
-        <v>1.045044315519916</v>
+        <v>1.039250094376826</v>
       </c>
       <c r="L2">
-        <v>1.05880925935154</v>
+        <v>1.032787553159464</v>
       </c>
       <c r="M2">
-        <v>1.06539506323659</v>
+        <v>1.04051064846637</v>
       </c>
       <c r="N2">
-        <v>1.01855334139399</v>
+        <v>1.015217304873467</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03984310399646</v>
+        <v>1.017603776611074</v>
       </c>
       <c r="D3">
-        <v>1.043002576049184</v>
+        <v>1.031645797125124</v>
       </c>
       <c r="E3">
-        <v>1.057182019370021</v>
+        <v>1.026496023205337</v>
       </c>
       <c r="F3">
-        <v>1.063817617615216</v>
+        <v>1.034504095409204</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040904277526378</v>
+        <v>1.049008625209201</v>
       </c>
       <c r="J3">
-        <v>1.044583051955594</v>
+        <v>1.03762578351006</v>
       </c>
       <c r="K3">
-        <v>1.045590740876615</v>
+        <v>1.041889163397921</v>
       </c>
       <c r="L3">
-        <v>1.059733546959199</v>
+        <v>1.036800745558487</v>
       </c>
       <c r="M3">
-        <v>1.06635236148839</v>
+        <v>1.044713733356528</v>
       </c>
       <c r="N3">
-        <v>1.0187572271746</v>
+        <v>1.016193250994187</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040464664828921</v>
+        <v>1.020547047209835</v>
       </c>
       <c r="D4">
-        <v>1.043478499644876</v>
+        <v>1.033848844558193</v>
       </c>
       <c r="E4">
-        <v>1.057902214138186</v>
+        <v>1.029591015885521</v>
       </c>
       <c r="F4">
-        <v>1.064558262947926</v>
+        <v>1.03771343170249</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04107050100455</v>
+        <v>1.049953732246329</v>
       </c>
       <c r="J4">
-        <v>1.044974238528252</v>
+        <v>1.039439371055829</v>
       </c>
       <c r="K4">
-        <v>1.045943697944438</v>
+        <v>1.043555212013924</v>
       </c>
       <c r="L4">
-        <v>1.060332023662407</v>
+        <v>1.03934495396176</v>
       </c>
       <c r="M4">
-        <v>1.066972089172042</v>
+        <v>1.047377037387239</v>
       </c>
       <c r="N4">
-        <v>1.018888906341151</v>
+        <v>1.016809448348209</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040725991007356</v>
+        <v>1.021769369112878</v>
       </c>
       <c r="D5">
-        <v>1.043678589099605</v>
+        <v>1.034764313024466</v>
       </c>
       <c r="E5">
-        <v>1.058205221535299</v>
+        <v>1.030878543232388</v>
       </c>
       <c r="F5">
-        <v>1.064869840431396</v>
+        <v>1.03904813740421</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041140117433978</v>
+        <v>1.050344049399924</v>
       </c>
       <c r="J5">
-        <v>1.04513856807497</v>
+        <v>1.040191527183052</v>
       </c>
       <c r="K5">
-        <v>1.046091932871477</v>
+        <v>1.044245966042686</v>
       </c>
       <c r="L5">
-        <v>1.060583719057317</v>
+        <v>1.040402418654051</v>
       </c>
       <c r="M5">
-        <v>1.067232692312183</v>
+        <v>1.048483691186141</v>
       </c>
       <c r="N5">
-        <v>1.018944204502883</v>
+        <v>1.01706494573812</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040769870100311</v>
+        <v>1.021973737080977</v>
       </c>
       <c r="D6">
-        <v>1.043712185628007</v>
+        <v>1.034917407483925</v>
       </c>
       <c r="E6">
-        <v>1.058256111733888</v>
+        <v>1.031093942589289</v>
       </c>
       <c r="F6">
-        <v>1.064922167982235</v>
+        <v>1.039271406728181</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041151790853169</v>
+        <v>1.050409179938148</v>
       </c>
       <c r="J6">
-        <v>1.045166152366674</v>
+        <v>1.040317224483309</v>
       </c>
       <c r="K6">
-        <v>1.046116813458901</v>
+        <v>1.044361389281956</v>
       </c>
       <c r="L6">
-        <v>1.060625985434009</v>
+        <v>1.040579274112342</v>
       </c>
       <c r="M6">
-        <v>1.06727645280275</v>
+        <v>1.048668754904724</v>
       </c>
       <c r="N6">
-        <v>1.018953485795874</v>
+        <v>1.017107639732491</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040468156596181</v>
+        <v>1.020563438254092</v>
       </c>
       <c r="D7">
-        <v>1.043481173207208</v>
+        <v>1.033861118635816</v>
       </c>
       <c r="E7">
-        <v>1.057906262004775</v>
+        <v>1.029608272634231</v>
       </c>
       <c r="F7">
-        <v>1.064562425435831</v>
+        <v>1.037731322317665</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041071432260108</v>
+        <v>1.04995897496403</v>
       </c>
       <c r="J7">
-        <v>1.044976434800652</v>
+        <v>1.039449461342417</v>
       </c>
       <c r="K7">
-        <v>1.045945679249945</v>
+        <v>1.04356447943603</v>
       </c>
       <c r="L7">
-        <v>1.060335386452406</v>
+        <v>1.039359130876296</v>
       </c>
       <c r="M7">
-        <v>1.066975571090643</v>
+        <v>1.047391874988708</v>
       </c>
       <c r="N7">
-        <v>1.018889645473026</v>
+        <v>1.016812876129446</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039207231373311</v>
+        <v>1.014539548135885</v>
       </c>
       <c r="D8">
-        <v>1.042515676349027</v>
+        <v>1.029354281185314</v>
       </c>
       <c r="E8">
-        <v>1.056445963508266</v>
+        <v>1.023281431793413</v>
       </c>
       <c r="F8">
-        <v>1.06306054465222</v>
+        <v>1.031169393902131</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040733307488106</v>
+        <v>1.048017222490148</v>
       </c>
       <c r="J8">
-        <v>1.044182384496406</v>
+        <v>1.035734234420563</v>
       </c>
       <c r="K8">
-        <v>1.045229109859279</v>
+        <v>1.040150785277468</v>
       </c>
       <c r="L8">
-        <v>1.059121543582619</v>
+        <v>1.034155012061492</v>
       </c>
       <c r="M8">
-        <v>1.065718526135091</v>
+        <v>1.041943080476558</v>
       </c>
       <c r="N8">
-        <v>1.018622296863886</v>
+        <v>1.015550368860961</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036986057082567</v>
+        <v>1.00339828363067</v>
       </c>
       <c r="D9">
-        <v>1.040814775002965</v>
+        <v>1.021041398924065</v>
       </c>
       <c r="E9">
-        <v>1.053880342141856</v>
+        <v>1.011652575654106</v>
       </c>
       <c r="F9">
-        <v>1.06042077630492</v>
+        <v>1.019095463357006</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040129069370208</v>
+        <v>1.044356141353994</v>
       </c>
       <c r="J9">
-        <v>1.042779198246837</v>
+        <v>1.02883160782772</v>
       </c>
       <c r="K9">
-        <v>1.043961725948965</v>
+        <v>1.033802075306204</v>
       </c>
       <c r="L9">
-        <v>1.056985674335859</v>
+        <v>1.024559385189516</v>
       </c>
       <c r="M9">
-        <v>1.063505695586717</v>
+        <v>1.031886144919413</v>
       </c>
       <c r="N9">
-        <v>1.018149301799634</v>
+        <v>1.013203093284594</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035505793260821</v>
+        <v>0.995575941757973</v>
       </c>
       <c r="D10">
-        <v>1.039681181479719</v>
+        <v>1.015223771583126</v>
       </c>
       <c r="E10">
-        <v>1.05217505253646</v>
+        <v>1.003537027948258</v>
       </c>
       <c r="F10">
-        <v>1.058665468367816</v>
+        <v>1.01066040681353</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039720601509367</v>
+        <v>1.041740653109438</v>
       </c>
       <c r="J10">
-        <v>1.041841102516359</v>
+        <v>1.023966192714152</v>
       </c>
       <c r="K10">
-        <v>1.043113678980278</v>
+        <v>1.029323490805301</v>
       </c>
       <c r="L10">
-        <v>1.055563837839129</v>
+        <v>1.017842712583396</v>
       </c>
       <c r="M10">
-        <v>1.062031993591883</v>
+        <v>1.024839815468801</v>
       </c>
       <c r="N10">
-        <v>1.017832713698319</v>
+        <v>1.011547806250723</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034864950005094</v>
+        <v>0.9920851359296452</v>
       </c>
       <c r="D11">
-        <v>1.039190414602316</v>
+        <v>1.012632928724688</v>
       </c>
       <c r="E11">
-        <v>1.051437859539488</v>
+        <v>0.9999270165133018</v>
       </c>
       <c r="F11">
-        <v>1.057906477693044</v>
+        <v>1.006906129313947</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039542395643088</v>
+        <v>1.040563303337019</v>
       </c>
       <c r="J11">
-        <v>1.04143427675317</v>
+        <v>1.021790930112698</v>
       </c>
       <c r="K11">
-        <v>1.042745730916178</v>
+        <v>1.027320475097753</v>
       </c>
       <c r="L11">
-        <v>1.054948660291674</v>
+        <v>1.01485030932719</v>
       </c>
       <c r="M11">
-        <v>1.061394225882357</v>
+        <v>1.021698970860967</v>
       </c>
       <c r="N11">
-        <v>1.017695332054812</v>
+        <v>1.010807638937051</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034626930673876</v>
+        <v>0.9907719910257629</v>
       </c>
       <c r="D12">
-        <v>1.039008135764261</v>
+        <v>1.011659203880811</v>
       </c>
       <c r="E12">
-        <v>1.051164214788294</v>
+        <v>0.9985707778609099</v>
       </c>
       <c r="F12">
-        <v>1.057624715366021</v>
+        <v>1.005495367450007</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039476001481397</v>
+        <v>1.040118936824391</v>
       </c>
       <c r="J12">
-        <v>1.041283070185777</v>
+        <v>1.020972097339355</v>
       </c>
       <c r="K12">
-        <v>1.042608948207443</v>
+        <v>1.026566389724559</v>
       </c>
       <c r="L12">
-        <v>1.054720229113524</v>
+        <v>1.013725410831034</v>
       </c>
       <c r="M12">
-        <v>1.061157383908106</v>
+        <v>1.020518036803176</v>
       </c>
       <c r="N12">
-        <v>1.017644258000268</v>
+        <v>1.010529008003962</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034677985792332</v>
+        <v>0.9910544275945289</v>
       </c>
       <c r="D13">
-        <v>1.039047234554702</v>
+        <v>1.011868595617731</v>
       </c>
       <c r="E13">
-        <v>1.051222904301261</v>
+        <v>0.9988624042468894</v>
       </c>
       <c r="F13">
-        <v>1.057685147074534</v>
+        <v>1.005798732427146</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039490252326746</v>
+        <v>1.040214579080694</v>
       </c>
       <c r="J13">
-        <v>1.04131550872626</v>
+        <v>1.021148239747158</v>
       </c>
       <c r="K13">
-        <v>1.042638293551562</v>
+        <v>1.026728607960027</v>
       </c>
       <c r="L13">
-        <v>1.054769225066542</v>
+        <v>1.013967324007218</v>
       </c>
       <c r="M13">
-        <v>1.06120818490103</v>
+        <v>1.020772011133369</v>
       </c>
       <c r="N13">
-        <v>1.017655215563925</v>
+        <v>1.010588945780157</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034845274876385</v>
+        <v>0.9919769332591744</v>
       </c>
       <c r="D14">
-        <v>1.039175347089793</v>
+        <v>1.012552675831224</v>
       </c>
       <c r="E14">
-        <v>1.051415236275579</v>
+        <v>0.9998152274160613</v>
       </c>
       <c r="F14">
-        <v>1.057883183855128</v>
+        <v>1.006789852700811</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039536911571115</v>
+        <v>1.040526717493302</v>
       </c>
       <c r="J14">
-        <v>1.041421779873427</v>
+        <v>1.021723469677749</v>
       </c>
       <c r="K14">
-        <v>1.042734426664449</v>
+        <v>1.027258350723593</v>
       </c>
       <c r="L14">
-        <v>1.054929776606999</v>
+        <v>1.014757602555477</v>
       </c>
       <c r="M14">
-        <v>1.061374647362439</v>
+        <v>1.021601650741007</v>
       </c>
       <c r="N14">
-        <v>1.017691111161956</v>
+        <v>1.010784683792367</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034948349646273</v>
+        <v>0.9925431035296514</v>
       </c>
       <c r="D15">
-        <v>1.03925428330828</v>
+        <v>1.012972635220759</v>
       </c>
       <c r="E15">
-        <v>1.051533762409083</v>
+        <v>1.000400234881046</v>
       </c>
       <c r="F15">
-        <v>1.058005222132198</v>
+        <v>1.007398330712818</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039565633301448</v>
+        <v>1.040718092830797</v>
       </c>
       <c r="J15">
-        <v>1.041487244674872</v>
+        <v>1.022076433773515</v>
       </c>
       <c r="K15">
-        <v>1.042793642831456</v>
+        <v>1.027583392031781</v>
       </c>
       <c r="L15">
-        <v>1.05502870740308</v>
+        <v>1.015242721650017</v>
       </c>
       <c r="M15">
-        <v>1.061477217448859</v>
+        <v>1.022110901206347</v>
       </c>
       <c r="N15">
-        <v>1.017713221748138</v>
+        <v>1.010904788509177</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035548326482111</v>
+        <v>0.9958053530695767</v>
       </c>
       <c r="D16">
-        <v>1.039713753955719</v>
+        <v>1.015394155972777</v>
       </c>
       <c r="E16">
-        <v>1.052224003069606</v>
+        <v>1.003774515538344</v>
       </c>
       <c r="F16">
-        <v>1.058715862603579</v>
+        <v>1.010907340245437</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039732400305785</v>
+        <v>1.041817819422914</v>
       </c>
       <c r="J16">
-        <v>1.041868089087187</v>
+        <v>1.024109068287666</v>
       </c>
       <c r="K16">
-        <v>1.043138082970955</v>
+        <v>1.029455039447533</v>
       </c>
       <c r="L16">
-        <v>1.055604675406572</v>
+        <v>1.018039474289732</v>
       </c>
       <c r="M16">
-        <v>1.062074327614744</v>
+        <v>1.025046305197341</v>
       </c>
       <c r="N16">
-        <v>1.017841825028131</v>
+        <v>1.011596420149753</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035924708600687</v>
+        <v>0.9978232851450926</v>
       </c>
       <c r="D17">
-        <v>1.040001991518805</v>
+        <v>1.016893495249844</v>
       </c>
       <c r="E17">
-        <v>1.05265729636477</v>
+        <v>1.00586481098433</v>
       </c>
       <c r="F17">
-        <v>1.059161914834934</v>
+        <v>1.013080531175418</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039836651167335</v>
+        <v>1.042495434820319</v>
       </c>
       <c r="J17">
-        <v>1.042106815913799</v>
+        <v>1.025365369051238</v>
       </c>
       <c r="K17">
-        <v>1.043353943891328</v>
+        <v>1.030611664945758</v>
       </c>
       <c r="L17">
-        <v>1.055966095297875</v>
+        <v>1.019770784349273</v>
       </c>
       <c r="M17">
-        <v>1.062448974095561</v>
+        <v>1.026863033609711</v>
       </c>
       <c r="N17">
-        <v>1.017922415127194</v>
+        <v>1.012023868974413</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036144257556243</v>
+        <v>0.9989903734432636</v>
       </c>
       <c r="D18">
-        <v>1.040170123913287</v>
+        <v>1.017761151458379</v>
       </c>
       <c r="E18">
-        <v>1.052910145632889</v>
+        <v>1.007074854376405</v>
       </c>
       <c r="F18">
-        <v>1.059422192723799</v>
+        <v>1.014338358634011</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039897329953706</v>
+        <v>1.042886373618695</v>
       </c>
       <c r="J18">
-        <v>1.042246000987127</v>
+        <v>1.026091577590136</v>
       </c>
       <c r="K18">
-        <v>1.043479780662939</v>
+        <v>1.031280188700971</v>
       </c>
       <c r="L18">
-        <v>1.056176952398808</v>
+        <v>1.020772573945081</v>
       </c>
       <c r="M18">
-        <v>1.062667533298145</v>
+        <v>1.027914099523285</v>
       </c>
       <c r="N18">
-        <v>1.017969393307156</v>
+        <v>1.012270946210174</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036219120042248</v>
+        <v>0.999386661859706</v>
       </c>
       <c r="D19">
-        <v>1.040227454097788</v>
+        <v>1.018055849461367</v>
       </c>
       <c r="E19">
-        <v>1.052996380481005</v>
+        <v>1.007485915475497</v>
       </c>
       <c r="F19">
-        <v>1.059510958258211</v>
+        <v>1.014765617992424</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03991799796774</v>
+        <v>1.043018952903012</v>
       </c>
       <c r="J19">
-        <v>1.042293449269334</v>
+        <v>1.02633809753717</v>
       </c>
       <c r="K19">
-        <v>1.04352267565009</v>
+        <v>1.031507115079318</v>
       </c>
       <c r="L19">
-        <v>1.056248857192664</v>
+        <v>1.021112814330136</v>
       </c>
       <c r="M19">
-        <v>1.062742062146878</v>
+        <v>1.028271050336584</v>
       </c>
       <c r="N19">
-        <v>1.017985406784595</v>
+        <v>1.012354817423029</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035884325156217</v>
+        <v>0.9976078144728037</v>
       </c>
       <c r="D20">
-        <v>1.039971065491596</v>
+        <v>1.016733346386777</v>
       </c>
       <c r="E20">
-        <v>1.052610796032472</v>
+        <v>1.005641499031549</v>
       </c>
       <c r="F20">
-        <v>1.059114046980835</v>
+        <v>1.012848384348367</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039825479375495</v>
+        <v>1.042423180338115</v>
       </c>
       <c r="J20">
-        <v>1.042081209013127</v>
+        <v>1.025231263331317</v>
       </c>
       <c r="K20">
-        <v>1.04333079142378</v>
+        <v>1.030488206090259</v>
       </c>
       <c r="L20">
-        <v>1.055927313503313</v>
+        <v>1.019585869569527</v>
       </c>
       <c r="M20">
-        <v>1.06240877453105</v>
+        <v>1.026669011095242</v>
       </c>
       <c r="N20">
-        <v>1.017913771535292</v>
+        <v>1.011978241389138</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034796011901119</v>
+        <v>0.9917057417388503</v>
       </c>
       <c r="D21">
-        <v>1.03913762075292</v>
+        <v>1.012351550077339</v>
       </c>
       <c r="E21">
-        <v>1.051358594291439</v>
+        <v>0.9995350752805821</v>
       </c>
       <c r="F21">
-        <v>1.057824862526012</v>
+        <v>1.006498449271557</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03952317712134</v>
+        <v>1.040434997648533</v>
       </c>
       <c r="J21">
-        <v>1.04139048824342</v>
+        <v>1.021554382768721</v>
       </c>
       <c r="K21">
-        <v>1.042706120902882</v>
+        <v>1.027102637015858</v>
       </c>
       <c r="L21">
-        <v>1.054882496160695</v>
+        <v>1.014525261160034</v>
       </c>
       <c r="M21">
-        <v>1.061325626843637</v>
+        <v>1.021357743631295</v>
       </c>
       <c r="N21">
-        <v>1.017680542026838</v>
+        <v>1.010727147488849</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034111852671771</v>
+        <v>0.9878988732847797</v>
       </c>
       <c r="D22">
-        <v>1.038613681397647</v>
+        <v>1.009530431249482</v>
       </c>
       <c r="E22">
-        <v>1.050572335744303</v>
+        <v>0.9956065877228054</v>
       </c>
       <c r="F22">
-        <v>1.057015230280375</v>
+        <v>1.002411412534755</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039331947388971</v>
+        <v>1.039144007942301</v>
       </c>
       <c r="J22">
-        <v>1.040955664699796</v>
+        <v>1.019179541170343</v>
       </c>
       <c r="K22">
-        <v>1.042312727165811</v>
+        <v>1.0249154235288</v>
       </c>
       <c r="L22">
-        <v>1.054226001268741</v>
+        <v>1.011265584296845</v>
       </c>
       <c r="M22">
-        <v>1.060644917580378</v>
+        <v>1.017935249754916</v>
       </c>
       <c r="N22">
-        <v>1.017533644625577</v>
+        <v>1.009919028644789</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034474528244891</v>
+        <v>0.9899263948879747</v>
       </c>
       <c r="D23">
-        <v>1.03889142366526</v>
+        <v>1.011032434000939</v>
       </c>
       <c r="E23">
-        <v>1.050989046722407</v>
+        <v>0.9976979241705107</v>
       </c>
       <c r="F23">
-        <v>1.057444343587439</v>
+        <v>1.004587331801603</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039433431791715</v>
+        <v>1.039832377115062</v>
       </c>
       <c r="J23">
-        <v>1.041186223936729</v>
+        <v>1.020444660427323</v>
       </c>
       <c r="K23">
-        <v>1.042521332999012</v>
+        <v>1.026080634741536</v>
       </c>
       <c r="L23">
-        <v>1.054573981518707</v>
+        <v>1.013001251530229</v>
       </c>
       <c r="M23">
-        <v>1.061005745173732</v>
+        <v>1.019757738771198</v>
       </c>
       <c r="N23">
-        <v>1.017611541983927</v>
+        <v>1.010349530662672</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035902572660464</v>
+        <v>0.9977052070361587</v>
       </c>
       <c r="D24">
-        <v>1.039985039606492</v>
+        <v>1.016805731992293</v>
       </c>
       <c r="E24">
-        <v>1.052631807170588</v>
+        <v>1.005742432425911</v>
       </c>
       <c r="F24">
-        <v>1.059135676084741</v>
+        <v>1.012953311592254</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039830527825849</v>
+        <v>1.042455842302518</v>
       </c>
       <c r="J24">
-        <v>1.042092779855431</v>
+        <v>1.025291880197923</v>
       </c>
       <c r="K24">
-        <v>1.04334125324743</v>
+        <v>1.030544010697766</v>
       </c>
       <c r="L24">
-        <v>1.055944837181614</v>
+        <v>1.019669449433382</v>
       </c>
       <c r="M24">
-        <v>1.06242693887794</v>
+        <v>1.026756708038965</v>
       </c>
       <c r="N24">
-        <v>1.017917677290976</v>
+        <v>1.011998865459773</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037560194123293</v>
+        <v>1.00634498429054</v>
       </c>
       <c r="D25">
-        <v>1.041254442616759</v>
+        <v>1.023237051975415</v>
       </c>
       <c r="E25">
-        <v>1.054542714065638</v>
+        <v>1.01471977719949</v>
       </c>
       <c r="F25">
-        <v>1.061102420495388</v>
+        <v>1.022281583431024</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040286275255822</v>
+        <v>1.045332354484064</v>
       </c>
       <c r="J25">
-        <v>1.043142422713255</v>
+        <v>1.030660685066455</v>
       </c>
       <c r="K25">
-        <v>1.044289928227594</v>
+        <v>1.035485042483607</v>
       </c>
       <c r="L25">
-        <v>1.057537482334883</v>
+        <v>1.027093805549768</v>
       </c>
       <c r="M25">
-        <v>1.064077498460743</v>
+        <v>1.034543580096571</v>
       </c>
       <c r="N25">
-        <v>1.018271805160151</v>
+        <v>1.013825237842322</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_62/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012954434538962</v>
+        <v>1.003270549860906</v>
       </c>
       <c r="D2">
-        <v>1.028169740045629</v>
+        <v>1.028191288779962</v>
       </c>
       <c r="E2">
-        <v>1.021621440344039</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.029446860556236</v>
+        <v>1.03470116800913</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047501557277607</v>
+        <v>1.052195637916067</v>
       </c>
       <c r="J2">
-        <v>1.034754465939514</v>
+        <v>1.02535387745467</v>
       </c>
       <c r="K2">
-        <v>1.039250094376826</v>
+        <v>1.039271363160219</v>
       </c>
       <c r="L2">
-        <v>1.032787553159464</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.04051064846637</v>
+        <v>1.045697336353314</v>
       </c>
       <c r="N2">
-        <v>1.015217304873467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012478565813714</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.044738754728835</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.038838531026962</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017603776611074</v>
+        <v>1.00658673170661</v>
       </c>
       <c r="D3">
-        <v>1.031645797125124</v>
+        <v>1.030381291094415</v>
       </c>
       <c r="E3">
-        <v>1.026496023205337</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.034504095409204</v>
+        <v>1.037024406203337</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049008625209201</v>
+        <v>1.052852519829053</v>
       </c>
       <c r="J3">
-        <v>1.03762578351006</v>
+        <v>1.026899432224553</v>
       </c>
       <c r="K3">
-        <v>1.041889163397921</v>
+        <v>1.040639652700721</v>
       </c>
       <c r="L3">
-        <v>1.036800745558487</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.044713733356528</v>
+        <v>1.04720449495603</v>
       </c>
       <c r="N3">
-        <v>1.016193250994187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012990113183185</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.045931561779713</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.039803364902742</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020547047209835</v>
+        <v>1.008696750987056</v>
       </c>
       <c r="D4">
-        <v>1.033848844558193</v>
+        <v>1.031776589695536</v>
       </c>
       <c r="E4">
-        <v>1.029591015885521</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.03771343170249</v>
+        <v>1.038507114651158</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049953732246329</v>
+        <v>1.053257766981192</v>
       </c>
       <c r="J4">
-        <v>1.039439371055829</v>
+        <v>1.027880579193362</v>
       </c>
       <c r="K4">
-        <v>1.043555212013924</v>
+        <v>1.041506049074097</v>
       </c>
       <c r="L4">
-        <v>1.03934495396176</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.047377037387239</v>
+        <v>1.048161986610154</v>
       </c>
       <c r="N4">
-        <v>1.016809448348209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013314950212185</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.046689346181559</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.040416875429279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021769369112878</v>
+        <v>1.009577788415182</v>
       </c>
       <c r="D5">
-        <v>1.034764313024466</v>
+        <v>1.032361223711477</v>
       </c>
       <c r="E5">
-        <v>1.030878543232388</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.03904813740421</v>
+        <v>1.039127802811312</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050344049399924</v>
+        <v>1.053425074030018</v>
       </c>
       <c r="J5">
-        <v>1.040191527183052</v>
+        <v>1.028290881232526</v>
       </c>
       <c r="K5">
-        <v>1.044245966042686</v>
+        <v>1.04186894245114</v>
       </c>
       <c r="L5">
-        <v>1.040402418654051</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.048483691186141</v>
+        <v>1.048562503705062</v>
       </c>
       <c r="N5">
-        <v>1.01706494573812</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01345106701449</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.047006325848717</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.040680634838601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021973737080977</v>
+        <v>1.009728060885016</v>
       </c>
       <c r="D6">
-        <v>1.034917407483925</v>
+        <v>1.032462932704331</v>
       </c>
       <c r="E6">
-        <v>1.031093942589289</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.039271406728181</v>
+        <v>1.039234391362615</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050409179938148</v>
+        <v>1.053454880788754</v>
       </c>
       <c r="J6">
-        <v>1.040317224483309</v>
+        <v>1.028362272186071</v>
       </c>
       <c r="K6">
-        <v>1.044361389281956</v>
+        <v>1.041933415807526</v>
       </c>
       <c r="L6">
-        <v>1.040579274112342</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.048668754904724</v>
+        <v>1.048632133976813</v>
       </c>
       <c r="N6">
-        <v>1.017107639732491</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013475057359236</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.047061433046584</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.040734959086344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020563438254092</v>
+        <v>1.008716105024282</v>
       </c>
       <c r="D7">
-        <v>1.033861118635816</v>
+        <v>1.031794672460859</v>
       </c>
       <c r="E7">
-        <v>1.029608272634231</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.037731322317665</v>
+        <v>1.038522500724817</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04995897496403</v>
+        <v>1.053265324530061</v>
       </c>
       <c r="J7">
-        <v>1.039449461342417</v>
+        <v>1.027893439505795</v>
       </c>
       <c r="K7">
-        <v>1.04356447943603</v>
+        <v>1.041521051950587</v>
       </c>
       <c r="L7">
-        <v>1.039359130876296</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.047391874988708</v>
+        <v>1.048174350469641</v>
       </c>
       <c r="N7">
-        <v>1.016812876129446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013320043754149</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.04669913126422</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.04044757722463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014539548135885</v>
+        <v>1.004408028810316</v>
       </c>
       <c r="D8">
-        <v>1.029354281185314</v>
+        <v>1.028948418835953</v>
       </c>
       <c r="E8">
-        <v>1.023281431793413</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.031169393902131</v>
+        <v>1.035499217727903</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048017222490148</v>
+        <v>1.052428185302653</v>
       </c>
       <c r="J8">
-        <v>1.035734234420563</v>
+        <v>1.025889131684482</v>
       </c>
       <c r="K8">
-        <v>1.040150785277468</v>
+        <v>1.039750038704686</v>
       </c>
       <c r="L8">
-        <v>1.034155012061492</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.041943080476558</v>
+        <v>1.046218877049712</v>
       </c>
       <c r="N8">
-        <v>1.015550368860961</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012656772230668</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.045151516696745</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.039199887000392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00339828363067</v>
+        <v>0.9965203616876926</v>
       </c>
       <c r="D9">
-        <v>1.021041398924065</v>
+        <v>1.023745463150258</v>
       </c>
       <c r="E9">
-        <v>1.011652575654106</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.019095463357006</v>
+        <v>1.029998438259891</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044356141353994</v>
+        <v>1.050791085308499</v>
       </c>
       <c r="J9">
-        <v>1.02883160782772</v>
+        <v>1.022196596165911</v>
       </c>
       <c r="K9">
-        <v>1.033802075306204</v>
+        <v>1.036464686001392</v>
       </c>
       <c r="L9">
-        <v>1.024559385189516</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.031886144919413</v>
+        <v>1.042622863837642</v>
       </c>
       <c r="N9">
-        <v>1.013203093284594</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011434227627715</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.042305526013139</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.036873755722532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.995575941757973</v>
+        <v>0.9910920012358111</v>
       </c>
       <c r="D10">
-        <v>1.015223771583126</v>
+        <v>1.020195770976562</v>
       </c>
       <c r="E10">
-        <v>1.003537027948258</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.01066040681353</v>
+        <v>1.02631093755542</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041740653109438</v>
+        <v>1.049618605586448</v>
       </c>
       <c r="J10">
-        <v>1.023966192714152</v>
+        <v>1.019663561405325</v>
       </c>
       <c r="K10">
-        <v>1.029323490805301</v>
+        <v>1.034209713633261</v>
       </c>
       <c r="L10">
-        <v>1.017842712583396</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.024839815468801</v>
+        <v>1.040220852142288</v>
       </c>
       <c r="N10">
-        <v>1.011547806250723</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010600123877496</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.040455812308037</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.035296162857753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9920851359296452</v>
+        <v>0.9889567117914015</v>
       </c>
       <c r="D11">
-        <v>1.012632928724688</v>
+        <v>1.018928391046005</v>
       </c>
       <c r="E11">
-        <v>0.9999270165133018</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.006906129313947</v>
+        <v>1.025422114904814</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040563303337019</v>
+        <v>1.049272016113751</v>
       </c>
       <c r="J11">
-        <v>1.021790930112698</v>
+        <v>1.01879623189658</v>
       </c>
       <c r="K11">
-        <v>1.027320475097753</v>
+        <v>1.033501961033656</v>
       </c>
       <c r="L11">
-        <v>1.01485030932719</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.021698970860967</v>
+        <v>1.039880020596455</v>
       </c>
       <c r="N11">
-        <v>1.010807638937051</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010345657257354</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.040621215055826</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.034828600733629</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9907719910257629</v>
+        <v>0.9882245881237798</v>
       </c>
       <c r="D12">
-        <v>1.011659203880811</v>
+        <v>1.018530301687811</v>
       </c>
       <c r="E12">
-        <v>0.9985707778609099</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.005495367450007</v>
+        <v>1.025330468383185</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040118936824391</v>
+        <v>1.049190644880572</v>
       </c>
       <c r="J12">
-        <v>1.020972097339355</v>
+        <v>1.018535802741963</v>
       </c>
       <c r="K12">
-        <v>1.026566389724559</v>
+        <v>1.033310897642035</v>
       </c>
       <c r="L12">
-        <v>1.013725410831034</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.020518036803176</v>
+        <v>1.039987951465172</v>
       </c>
       <c r="N12">
-        <v>1.010529008003962</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010282584353359</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.041032215070392</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.034693512682625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9910544275945289</v>
+        <v>0.9885370953661791</v>
       </c>
       <c r="D13">
-        <v>1.011868595617731</v>
+        <v>1.018792121061352</v>
       </c>
       <c r="E13">
-        <v>0.9988624042468894</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.005798732427146</v>
+        <v>1.025869634327388</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040214579080694</v>
+        <v>1.04932310032969</v>
       </c>
       <c r="J13">
-        <v>1.021148239747158</v>
+        <v>1.018740207560847</v>
       </c>
       <c r="K13">
-        <v>1.026728607960027</v>
+        <v>1.033525081242521</v>
       </c>
       <c r="L13">
-        <v>1.013967324007218</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.020772011133369</v>
+        <v>1.040475018182548</v>
       </c>
       <c r="N13">
-        <v>1.010588945780157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010368882386305</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.041693412719362</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.034842454217899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9919769332591744</v>
+        <v>0.9892289592290662</v>
       </c>
       <c r="D14">
-        <v>1.012552675831224</v>
+        <v>1.01927446233746</v>
       </c>
       <c r="E14">
-        <v>0.9998152274160613</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.006789852700811</v>
+        <v>1.026532032221131</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040526717493302</v>
+        <v>1.049512269351188</v>
       </c>
       <c r="J14">
-        <v>1.021723469677749</v>
+        <v>1.019093099463833</v>
       </c>
       <c r="K14">
-        <v>1.027258350723593</v>
+        <v>1.033858324617912</v>
       </c>
       <c r="L14">
-        <v>1.014757602555477</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.021601650741007</v>
+        <v>1.040986694692665</v>
       </c>
       <c r="N14">
-        <v>1.010784683792367</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010496625197588</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.042270872660137</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.035079493248146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9925431035296514</v>
+        <v>0.9896305920415905</v>
       </c>
       <c r="D15">
-        <v>1.012972635220759</v>
+        <v>1.01954426502117</v>
       </c>
       <c r="E15">
-        <v>1.000400234881046</v>
+        <v>0.9332781050737292</v>
       </c>
       <c r="F15">
-        <v>1.007398330712818</v>
+        <v>1.026846171103087</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040718092830797</v>
+        <v>1.049610013700354</v>
       </c>
       <c r="J15">
-        <v>1.022076433773515</v>
+        <v>1.019287462014703</v>
       </c>
       <c r="K15">
-        <v>1.027583392031781</v>
+        <v>1.034036848520376</v>
       </c>
       <c r="L15">
-        <v>1.015242721650017</v>
+        <v>0.9494987508782936</v>
       </c>
       <c r="M15">
-        <v>1.022110901206347</v>
+        <v>1.041209747432752</v>
       </c>
       <c r="N15">
-        <v>1.010904788509177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010563160450767</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.042484642904235</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.035211587853946</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9958053530695767</v>
+        <v>0.9918762987556548</v>
       </c>
       <c r="D16">
-        <v>1.015394155972777</v>
+        <v>1.021011714733734</v>
       </c>
       <c r="E16">
-        <v>1.003774515538344</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.010907340245437</v>
+        <v>1.02834335513147</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041817819422914</v>
+        <v>1.050107514567859</v>
       </c>
       <c r="J16">
-        <v>1.024109068287666</v>
+        <v>1.020338147284511</v>
       </c>
       <c r="K16">
-        <v>1.029455039447533</v>
+        <v>1.03497608868873</v>
       </c>
       <c r="L16">
-        <v>1.018039474289732</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.025046305197341</v>
+        <v>1.042183816060867</v>
       </c>
       <c r="N16">
-        <v>1.011596420149753</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010906252544027</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.043215898192463</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.035878832434206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9978232851450926</v>
+        <v>0.9932385049395831</v>
       </c>
       <c r="D17">
-        <v>1.016893495249844</v>
+        <v>1.021885696174651</v>
       </c>
       <c r="E17">
-        <v>1.00586481098433</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.013080531175418</v>
+        <v>1.029140474454553</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042495434820319</v>
+        <v>1.050386495207722</v>
       </c>
       <c r="J17">
-        <v>1.025365369051238</v>
+        <v>1.020959020256534</v>
       </c>
       <c r="K17">
-        <v>1.030611664945758</v>
+        <v>1.035520571313987</v>
       </c>
       <c r="L17">
-        <v>1.019770784349273</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.026863033609711</v>
+        <v>1.042656154788061</v>
       </c>
       <c r="N17">
-        <v>1.012023868974413</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011102447044733</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.043460457092182</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.036266390399688</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9989903734432636</v>
+        <v>0.9939552823195998</v>
       </c>
       <c r="D18">
-        <v>1.017761151458379</v>
+        <v>1.022307432206165</v>
       </c>
       <c r="E18">
-        <v>1.007074854376405</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.014338358634011</v>
+        <v>1.029362885619737</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042886373618695</v>
+        <v>1.050491990048483</v>
       </c>
       <c r="J18">
-        <v>1.026091577590136</v>
+        <v>1.021248613017611</v>
       </c>
       <c r="K18">
-        <v>1.031280188700971</v>
+        <v>1.035751907985307</v>
       </c>
       <c r="L18">
-        <v>1.020772573945081</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.027914099523285</v>
+        <v>1.042693320678584</v>
       </c>
       <c r="N18">
-        <v>1.012270946210174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01118226762182</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.043252662298368</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.03641831705562</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.999386661859706</v>
+        <v>0.994074141037294</v>
       </c>
       <c r="D19">
-        <v>1.018055849461367</v>
+        <v>1.022310313957326</v>
       </c>
       <c r="E19">
-        <v>1.007485915475497</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.014765617992424</v>
+        <v>1.029049844768029</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043018952903012</v>
+        <v>1.05043748336466</v>
       </c>
       <c r="J19">
-        <v>1.02633809753717</v>
+        <v>1.02122695610609</v>
       </c>
       <c r="K19">
-        <v>1.031507115079318</v>
+        <v>1.035692202601644</v>
       </c>
       <c r="L19">
-        <v>1.021112814330136</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.028271050336584</v>
+        <v>1.042323337773101</v>
       </c>
       <c r="N19">
-        <v>1.012354817423029</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011154083267658</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.042635408676913</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.036382497452655</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9976078144728037</v>
+        <v>0.9925157531108013</v>
       </c>
       <c r="D20">
-        <v>1.016733346386777</v>
+        <v>1.021138554903421</v>
       </c>
       <c r="E20">
-        <v>1.005641499031549</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.012848384348367</v>
+        <v>1.027283706829971</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042423180338115</v>
+        <v>1.049939826497281</v>
       </c>
       <c r="J20">
-        <v>1.025231263331317</v>
+        <v>1.020338259993298</v>
       </c>
       <c r="K20">
-        <v>1.030488206090259</v>
+        <v>1.034819620398518</v>
       </c>
       <c r="L20">
-        <v>1.019585869569527</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.026669011095242</v>
+        <v>1.040863190780061</v>
       </c>
       <c r="N20">
-        <v>1.011978241389138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010824767128834</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.040953630349176</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.035769466585381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9917057417388503</v>
+        <v>0.9883900545760285</v>
       </c>
       <c r="D21">
-        <v>1.012351550077339</v>
+        <v>1.018418250024359</v>
       </c>
       <c r="E21">
-        <v>0.9995350752805821</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.006498449271557</v>
+        <v>1.024381774519032</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040434997648533</v>
+        <v>1.04899979123286</v>
       </c>
       <c r="J21">
-        <v>1.021554382768721</v>
+        <v>1.018381332465081</v>
       </c>
       <c r="K21">
-        <v>1.027102637015858</v>
+        <v>1.033058887377158</v>
       </c>
       <c r="L21">
-        <v>1.014525261160034</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.021357743631295</v>
+        <v>1.038915495551042</v>
       </c>
       <c r="N21">
-        <v>1.010727147488849</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010174373479036</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.039371393957727</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.034527787137661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9878988732847797</v>
+        <v>0.9857583625299566</v>
       </c>
       <c r="D22">
-        <v>1.009530431249482</v>
+        <v>1.016690210507366</v>
       </c>
       <c r="E22">
-        <v>0.9956065877228054</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.002411412534755</v>
+        <v>1.022571296292371</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039144007942301</v>
+        <v>1.048392905265377</v>
       </c>
       <c r="J22">
-        <v>1.019179541170343</v>
+        <v>1.017136616501272</v>
       </c>
       <c r="K22">
-        <v>1.0249154235288</v>
+        <v>1.031938126811184</v>
       </c>
       <c r="L22">
-        <v>1.011265584296845</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.017935249754916</v>
+        <v>1.037708491639304</v>
       </c>
       <c r="N22">
-        <v>1.009919028644789</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009761667188382</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.0384161291537</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.033721847576242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9899263948879747</v>
+        <v>0.9871518199028391</v>
       </c>
       <c r="D23">
-        <v>1.011032434000939</v>
+        <v>1.017600637203585</v>
       </c>
       <c r="E23">
-        <v>0.9976979241705107</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.004587331801603</v>
+        <v>1.023527895914139</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039832377115062</v>
+        <v>1.048712567478168</v>
       </c>
       <c r="J23">
-        <v>1.020444660427323</v>
+        <v>1.017792769657267</v>
       </c>
       <c r="K23">
-        <v>1.026080634741536</v>
+        <v>1.032526373696048</v>
       </c>
       <c r="L23">
-        <v>1.013001251530229</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.019757738771198</v>
+        <v>1.038344874289446</v>
       </c>
       <c r="N23">
-        <v>1.010349530662672</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009978351214191</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.038919784637512</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.034128124305048</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9977052070361587</v>
+        <v>0.9925461054480955</v>
       </c>
       <c r="D24">
-        <v>1.016805731992293</v>
+        <v>1.021139055173928</v>
       </c>
       <c r="E24">
-        <v>1.005742432425911</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.012953311592254</v>
+        <v>1.027246960858865</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042455842302518</v>
+        <v>1.049928880755034</v>
       </c>
       <c r="J24">
-        <v>1.025291880197923</v>
+        <v>1.02033413722717</v>
       </c>
       <c r="K24">
-        <v>1.030544010697766</v>
+        <v>1.034804843648298</v>
       </c>
       <c r="L24">
-        <v>1.019669449433382</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.026756708038965</v>
+        <v>1.04081190818052</v>
       </c>
       <c r="N24">
-        <v>1.011998865459773</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010819213557346</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.040872278191866</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.035731609850442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00634498429054</v>
+        <v>0.9986061799907285</v>
       </c>
       <c r="D25">
-        <v>1.023237051975415</v>
+        <v>1.025126868494129</v>
       </c>
       <c r="E25">
-        <v>1.01471977719949</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.022281583431024</v>
+        <v>1.031450990438689</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045332354484064</v>
+        <v>1.051240721578297</v>
       </c>
       <c r="J25">
-        <v>1.030660685066455</v>
+        <v>1.023180542960163</v>
       </c>
       <c r="K25">
-        <v>1.035485042483607</v>
+        <v>1.03734725382921</v>
       </c>
       <c r="L25">
-        <v>1.027093805549768</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.034543580096571</v>
+        <v>1.043579928833469</v>
       </c>
       <c r="N25">
-        <v>1.013825237842322</v>
+        <v>1.011761308688384</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.043062976501868</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.037526363007416</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_62/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003270549860906</v>
+        <v>1.002953034088607</v>
       </c>
       <c r="D2">
-        <v>1.028191288779962</v>
+        <v>1.027376565123078</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.03470116800913</v>
+        <v>1.034169885374498</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052195637916067</v>
+        <v>1.051775446006635</v>
       </c>
       <c r="J2">
-        <v>1.02535387745467</v>
+        <v>1.025045777739861</v>
       </c>
       <c r="K2">
-        <v>1.039271363160219</v>
+        <v>1.038467234241018</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.045697336353314</v>
+        <v>1.045172851956122</v>
       </c>
       <c r="N2">
-        <v>1.012478565813714</v>
+        <v>1.013931023787582</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.044738754728835</v>
+        <v>1.044323662798643</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.038838531026962</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038278713986882</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02234304670851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00658673170661</v>
+        <v>1.006155128805624</v>
       </c>
       <c r="D3">
-        <v>1.030381291094415</v>
+        <v>1.029423441545749</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.037024406203337</v>
+        <v>1.036390972836638</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052852519829053</v>
+        <v>1.052357560390462</v>
       </c>
       <c r="J3">
-        <v>1.026899432224553</v>
+        <v>1.026479393690202</v>
       </c>
       <c r="K3">
-        <v>1.040639652700721</v>
+        <v>1.039693192349164</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.04720449495603</v>
+        <v>1.046578471502131</v>
       </c>
       <c r="N3">
-        <v>1.012990113183185</v>
+        <v>1.014308325224839</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045931561779713</v>
+        <v>1.045436109719394</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.039803364902742</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039142632266621</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02256782090165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008696750987056</v>
+        <v>1.008193239967864</v>
       </c>
       <c r="D4">
-        <v>1.031776589695536</v>
+        <v>1.030728152219801</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.038507114651158</v>
+        <v>1.037809103848609</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053257766981192</v>
+        <v>1.052715395225396</v>
       </c>
       <c r="J4">
-        <v>1.027880579193362</v>
+        <v>1.027389658768482</v>
       </c>
       <c r="K4">
-        <v>1.041506049074097</v>
+        <v>1.040469338279435</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.048161986610154</v>
+        <v>1.047471655882349</v>
       </c>
       <c r="N4">
-        <v>1.013314950212185</v>
+        <v>1.014547984322194</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.046689346181559</v>
+        <v>1.046143000132219</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.040416875429279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.039692410880758</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022707597583611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009577788415182</v>
+        <v>1.009044443202892</v>
       </c>
       <c r="D5">
-        <v>1.032361223711477</v>
+        <v>1.031275159984593</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.039127802811312</v>
+        <v>1.038402982452909</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053425074030018</v>
+        <v>1.052862987655027</v>
       </c>
       <c r="J5">
-        <v>1.028290881232526</v>
+        <v>1.027770479384807</v>
       </c>
       <c r="K5">
-        <v>1.04186894245114</v>
+        <v>1.040794707910137</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.048562503705062</v>
+        <v>1.04784544909191</v>
       </c>
       <c r="N5">
-        <v>1.01345106701449</v>
+        <v>1.014648467008371</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.047006325848717</v>
+        <v>1.046438830043624</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.040680634838601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039930348528835</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022765920134985</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009728060885016</v>
+        <v>1.009189678730678</v>
       </c>
       <c r="D6">
-        <v>1.032462932704331</v>
+        <v>1.031370562996844</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.039234391362615</v>
+        <v>1.038505074175307</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053454880788754</v>
+        <v>1.052889488969678</v>
       </c>
       <c r="J6">
-        <v>1.028362272186071</v>
+        <v>1.027836889341602</v>
       </c>
       <c r="K6">
-        <v>1.041933415807526</v>
+        <v>1.040852890325116</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.048632133976813</v>
+        <v>1.047910595453469</v>
       </c>
       <c r="N6">
-        <v>1.013475057359236</v>
+        <v>1.014666228636917</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.047061433046584</v>
+        <v>1.046490388598807</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.040734959086344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039981092613582</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022776729258312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008716105024282</v>
+        <v>1.008219689904797</v>
       </c>
       <c r="D7">
-        <v>1.031794672460859</v>
+        <v>1.030750603534367</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.038522500724817</v>
+        <v>1.03782824996897</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053265324530061</v>
+        <v>1.052725256781877</v>
       </c>
       <c r="J7">
-        <v>1.027893439505795</v>
+        <v>1.02740943224925</v>
       </c>
       <c r="K7">
-        <v>1.041521051950587</v>
+        <v>1.040488656386054</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.048174350469641</v>
+        <v>1.047487735563938</v>
       </c>
       <c r="N7">
-        <v>1.013320043754149</v>
+        <v>1.014579659022724</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.04669913126422</v>
+        <v>1.046155726023361</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04044757722463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.039728160916398</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022712673186101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004408028810316</v>
+        <v>1.004074790647939</v>
       </c>
       <c r="D8">
-        <v>1.028948418835953</v>
+        <v>1.02809991870162</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.035499217727903</v>
+        <v>1.034945809444676</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052428185302653</v>
+        <v>1.051990427658456</v>
       </c>
       <c r="J8">
-        <v>1.025889131684482</v>
+        <v>1.025565448593178</v>
       </c>
       <c r="K8">
-        <v>1.039750038704686</v>
+        <v>1.03891224995156</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.046218877049712</v>
+        <v>1.045672342770263</v>
       </c>
       <c r="N8">
-        <v>1.012656772230668</v>
+        <v>1.014147046997972</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.045151516696745</v>
+        <v>1.044718974098785</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.039199887000392</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038618534953954</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022427923899876</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9965203616876926</v>
+        <v>0.9964659940057137</v>
       </c>
       <c r="D9">
-        <v>1.023745463150258</v>
+        <v>1.02324213307775</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.029998438259891</v>
+        <v>1.029692203551761</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050791085308499</v>
+        <v>1.050533109279748</v>
       </c>
       <c r="J9">
-        <v>1.022196596165911</v>
+        <v>1.022144167327135</v>
       </c>
       <c r="K9">
-        <v>1.036464686001392</v>
+        <v>1.035969050852512</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.042622863837642</v>
+        <v>1.042321237614962</v>
       </c>
       <c r="N9">
-        <v>1.011434227627715</v>
+        <v>1.013255844708856</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.042305526013139</v>
+        <v>1.042066809638056</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.036873755722532</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036534047867771</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021873086279777</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9910920012358111</v>
+        <v>0.9912658853366721</v>
       </c>
       <c r="D10">
-        <v>1.020195770976562</v>
+        <v>1.019952650152144</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.02631093755542</v>
+        <v>1.026194513516714</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049618605586448</v>
+        <v>1.049495762744698</v>
       </c>
       <c r="J10">
-        <v>1.019663561405325</v>
+        <v>1.019830371062199</v>
       </c>
       <c r="K10">
-        <v>1.034209713633261</v>
+        <v>1.033970761977639</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.040220852142288</v>
+        <v>1.040106393712945</v>
       </c>
       <c r="N10">
-        <v>1.010600123877496</v>
+        <v>1.012766675201051</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.040455812308037</v>
+        <v>1.040365231744939</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035296162857753</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035139622902506</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021488881137921</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9889567117914015</v>
+        <v>0.9892612544472139</v>
       </c>
       <c r="D11">
-        <v>1.018928391046005</v>
+        <v>1.018808028457885</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.025422114904814</v>
+        <v>1.025400203272745</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049272016113751</v>
+        <v>1.049213108092076</v>
       </c>
       <c r="J11">
-        <v>1.01879623189658</v>
+        <v>1.019087703718816</v>
       </c>
       <c r="K11">
-        <v>1.033501961033656</v>
+        <v>1.033383760392436</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.039880020596455</v>
+        <v>1.039858496053465</v>
       </c>
       <c r="N11">
-        <v>1.010345657257354</v>
+        <v>1.01282100945989</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.040621215055826</v>
+        <v>1.040604189403384</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.034828600733629</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034760649654687</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021398215439782</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9882245881237798</v>
+        <v>0.9885774287654735</v>
       </c>
       <c r="D12">
-        <v>1.018530301687811</v>
+        <v>1.018452361691</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.025330468383185</v>
+        <v>1.025342252491653</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049190644880572</v>
+        <v>1.049153880799816</v>
       </c>
       <c r="J12">
-        <v>1.018535802741963</v>
+        <v>1.018873204947795</v>
       </c>
       <c r="K12">
-        <v>1.033310897642035</v>
+        <v>1.033234381107006</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.039987951465172</v>
+        <v>1.039999524070961</v>
       </c>
       <c r="N12">
-        <v>1.010282584353359</v>
+        <v>1.012881200007931</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.041032215070392</v>
+        <v>1.041041365777231</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034693512682625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034655035821233</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021380764290754</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9885370953661791</v>
+        <v>0.9888670288027266</v>
       </c>
       <c r="D13">
-        <v>1.018792121061352</v>
+        <v>1.018690445093636</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.025869634327388</v>
+        <v>1.025864548212837</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04932310032969</v>
+        <v>1.049274095986167</v>
       </c>
       <c r="J13">
-        <v>1.018740207560847</v>
+        <v>1.019055770345469</v>
       </c>
       <c r="K13">
-        <v>1.033525081242521</v>
+        <v>1.033425254850755</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.040475018182548</v>
+        <v>1.04047002292748</v>
       </c>
       <c r="N13">
-        <v>1.010368882386305</v>
+        <v>1.01291920874037</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.041693412719362</v>
+        <v>1.041689463853279</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034842454217899</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.034787251549015</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021424171529539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9892289592290662</v>
+        <v>0.9895116361969949</v>
       </c>
       <c r="D14">
-        <v>1.01927446233746</v>
+        <v>1.019127056263135</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.026532032221131</v>
+        <v>1.026492941029757</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049512269351188</v>
+        <v>1.049439563707591</v>
       </c>
       <c r="J14">
-        <v>1.019093099463833</v>
+        <v>1.019363635826659</v>
       </c>
       <c r="K14">
-        <v>1.033858324617912</v>
+        <v>1.03371356745331</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.040986694692665</v>
+        <v>1.040948293060366</v>
       </c>
       <c r="N14">
-        <v>1.010496625197588</v>
+        <v>1.012936995518317</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042270872660137</v>
+        <v>1.042240519359005</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.035079493248146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034992657246707</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021482240469363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9896305920415905</v>
+        <v>0.9898864057003185</v>
       </c>
       <c r="D15">
-        <v>1.01954426502117</v>
+        <v>1.019371166341094</v>
       </c>
       <c r="E15">
         <v>0.9332781050737292</v>
       </c>
       <c r="F15">
-        <v>1.026846171103087</v>
+        <v>1.026787734028146</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049610013700354</v>
+        <v>1.049523972220177</v>
       </c>
       <c r="J15">
-        <v>1.019287462014703</v>
+        <v>1.019532383330687</v>
       </c>
       <c r="K15">
-        <v>1.034036848520376</v>
+        <v>1.033866837194125</v>
       </c>
       <c r="L15">
         <v>0.9494987508782936</v>
       </c>
       <c r="M15">
-        <v>1.041209747432752</v>
+        <v>1.041152333365271</v>
       </c>
       <c r="N15">
-        <v>1.010563160450767</v>
+        <v>1.012941539222309</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042484642904235</v>
+        <v>1.042439263045469</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035211587853946</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035107464527493</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021512461575392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9918762987556548</v>
+        <v>0.9919891355011398</v>
       </c>
       <c r="D16">
-        <v>1.021011714733734</v>
+        <v>1.02070008609053</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.02834335513147</v>
+        <v>1.028180068799084</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050107514567859</v>
+        <v>1.049949480413114</v>
       </c>
       <c r="J16">
-        <v>1.020338147284511</v>
+        <v>1.020446417882447</v>
       </c>
       <c r="K16">
-        <v>1.03497608868873</v>
+        <v>1.034669777867649</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.042183816060867</v>
+        <v>1.042023264652095</v>
       </c>
       <c r="N16">
-        <v>1.010906252544027</v>
+        <v>1.012973737509457</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.043215898192463</v>
+        <v>1.043088995383996</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.035878832434206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035678638468317</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021669738607046</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9932385049395831</v>
+        <v>0.9932744808824553</v>
       </c>
       <c r="D17">
-        <v>1.021885696174651</v>
+        <v>1.021496792470173</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.029140474454553</v>
+        <v>1.028918859036866</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050386495207722</v>
+        <v>1.050188258762911</v>
       </c>
       <c r="J17">
-        <v>1.020959020256534</v>
+        <v>1.020993587011361</v>
       </c>
       <c r="K17">
-        <v>1.035520571313987</v>
+        <v>1.035138118792779</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.042656154788061</v>
+        <v>1.042438148497135</v>
       </c>
       <c r="N17">
-        <v>1.011102447044733</v>
+        <v>1.013017632938224</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043460457092182</v>
+        <v>1.043288123776896</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036266390399688</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036012607832627</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021759880421844</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9939552823195998</v>
+        <v>0.9939555709939865</v>
       </c>
       <c r="D18">
-        <v>1.022307432206165</v>
+        <v>1.021882180254468</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.029362885619737</v>
+        <v>1.029113364817645</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050491990048483</v>
+        <v>1.050274784907065</v>
       </c>
       <c r="J18">
-        <v>1.021248613017611</v>
+        <v>1.021248890598131</v>
       </c>
       <c r="K18">
-        <v>1.035751907985307</v>
+        <v>1.035333594249976</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.042693320678584</v>
+        <v>1.04244779879539</v>
       </c>
       <c r="N18">
-        <v>1.01118226762182</v>
+        <v>1.013032646728402</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.043252662298368</v>
+        <v>1.043058537686326</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.03641831705562</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036138044621747</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021792462278285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.994074141037294</v>
+        <v>0.9940737995657127</v>
       </c>
       <c r="D19">
-        <v>1.022310313957326</v>
+        <v>1.021885672660859</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.029049844768029</v>
+        <v>1.028799654433497</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.05043748336466</v>
+        <v>1.050220486401792</v>
       </c>
       <c r="J19">
-        <v>1.02122695610609</v>
+        <v>1.021226627676127</v>
       </c>
       <c r="K19">
-        <v>1.035692202601644</v>
+        <v>1.035274452542012</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.042323337773101</v>
+        <v>1.042077138855013</v>
       </c>
       <c r="N19">
-        <v>1.011154083267658</v>
+        <v>1.013000466923713</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.042635408676913</v>
+        <v>1.042440685429951</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036382497452655</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036103247111179</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021769541372388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9925157531108013</v>
+        <v>0.992608551711322</v>
       </c>
       <c r="D20">
-        <v>1.021138554903421</v>
+        <v>1.020813999698842</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.027283706829971</v>
+        <v>1.027106184654767</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049939826497281</v>
+        <v>1.049774659836548</v>
       </c>
       <c r="J20">
-        <v>1.020338259993298</v>
+        <v>1.020427405071323</v>
       </c>
       <c r="K20">
-        <v>1.034819620398518</v>
+        <v>1.034500474008903</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.040863190780061</v>
+        <v>1.040688581184798</v>
       </c>
       <c r="N20">
-        <v>1.010824767128834</v>
+        <v>1.012826791866772</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.040953630349176</v>
+        <v>1.040815445449986</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.035769466585381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035560322621247</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021592852702265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9883900545760285</v>
+        <v>0.9887626962359023</v>
       </c>
       <c r="D21">
-        <v>1.018418250024359</v>
+        <v>1.018361026530845</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.024381774519032</v>
+        <v>1.024407238167357</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04899979123286</v>
+        <v>1.048973564854147</v>
       </c>
       <c r="J21">
-        <v>1.018381332465081</v>
+        <v>1.01873787541068</v>
       </c>
       <c r="K21">
-        <v>1.033058887377158</v>
+        <v>1.033002697694256</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.038915495551042</v>
+        <v>1.038940506141458</v>
       </c>
       <c r="N21">
-        <v>1.010174373479036</v>
+        <v>1.012796267755676</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.039371393957727</v>
+        <v>1.039391188193915</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034527787137661</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034504892516439</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02130065279878</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9857583625299566</v>
+        <v>0.9863074861098026</v>
       </c>
       <c r="D22">
-        <v>1.016690210507366</v>
+        <v>1.016801632346548</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.022571296292371</v>
+        <v>1.022724971752279</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I22">
-        <v>1.048392905265377</v>
+        <v>1.048454183184725</v>
       </c>
       <c r="J22">
-        <v>1.017136616501272</v>
+        <v>1.017660647521706</v>
       </c>
       <c r="K22">
-        <v>1.031938126811184</v>
+        <v>1.032047435391658</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.037708491639304</v>
+        <v>1.037859296190647</v>
       </c>
       <c r="N22">
-        <v>1.009761667188382</v>
+        <v>1.012768948076884</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.0384161291537</v>
+        <v>1.038535481181349</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.033721847576242</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033814669270917</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02111227561987</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9871518199028391</v>
+        <v>0.9875952544863522</v>
       </c>
       <c r="D23">
-        <v>1.017600637203585</v>
+        <v>1.017614699302352</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.023527895914139</v>
+        <v>1.023606856110164</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048712567478168</v>
+        <v>1.048723302951506</v>
       </c>
       <c r="J23">
-        <v>1.017792769657267</v>
+        <v>1.018216530523828</v>
       </c>
       <c r="K23">
-        <v>1.032526373696048</v>
+        <v>1.032540175817551</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.038344874289446</v>
+        <v>1.03842239672301</v>
       </c>
       <c r="N23">
-        <v>1.009978351214191</v>
+        <v>1.012739465070358</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.038919784637512</v>
+        <v>1.038981138578218</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034128124305048</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034152476663168</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021208371551527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9925461054480955</v>
+        <v>0.992638334005811</v>
       </c>
       <c r="D24">
-        <v>1.021139055173928</v>
+        <v>1.020813853338251</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.027246960858865</v>
+        <v>1.027068875548609</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049928880755034</v>
+        <v>1.049763364143137</v>
       </c>
       <c r="J24">
-        <v>1.02033413722717</v>
+        <v>1.02042274012654</v>
       </c>
       <c r="K24">
-        <v>1.034804843648298</v>
+        <v>1.034485054455984</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.04081190818052</v>
+        <v>1.040636741222222</v>
       </c>
       <c r="N24">
-        <v>1.010819213557346</v>
+        <v>1.012818639471179</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040872278191866</v>
+        <v>1.040733645347213</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.035731609850442</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035519341116611</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021586200734362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9986061799907285</v>
+        <v>0.9984681823260447</v>
       </c>
       <c r="D25">
-        <v>1.025126868494129</v>
+        <v>1.024526205517641</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.031450990438689</v>
+        <v>1.031074155571783</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051240721578297</v>
+        <v>1.050932106712876</v>
       </c>
       <c r="J25">
-        <v>1.023180542960163</v>
+        <v>1.023047208445283</v>
       </c>
       <c r="K25">
-        <v>1.03734725382921</v>
+        <v>1.03675535092804</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.043579928833469</v>
+        <v>1.043208503203622</v>
       </c>
       <c r="N25">
-        <v>1.011761308688384</v>
+        <v>1.01346172328551</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043062976501868</v>
+        <v>1.04276901900018</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.037526363007416</v>
+        <v>1.037121389450218</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022024527771789</v>
       </c>
     </row>
   </sheetData>
